--- a/get_every_day/info.xlsx
+++ b/get_every_day/info.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="小木虫" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,15 +46,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -456,7 +456,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,10 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>调剂人数</t>
+          <t>发布时间</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>发布时间</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>链接</t>
         </is>
@@ -522,20 +517,19 @@
           <t>仪器科学与技术</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>http://www.chinakaoyan.com/http://static.chinakaoyan.com/tiaoji/schooldetail/id/32805.shtml</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -545,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +569,5221 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>天津科技大学轻工科学与工程学院先进纤维与纸基功能材料团队面向我国在造纸、能源、生物、环保、国防、包装等领域对新材料的重大需求，以天然纤维与合成纤维为先导，以非织造和湿法造纸等关键技术为核心，以纸基功能材料应用创新为重点开展研究，努力创建国内一流的纤维材料高水平科研平台。     团队负责人为天津科技大学副校长，荣获“全国创新争先奖”“百千万人才工程”国家级人选、全国中青年突出贡献专家、国务院政府特贴专家、全国纺织科技创新领军人才、天津市高层次创新型科技创新领军人才、天津市学科领军人才培养计划、天津市首</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-02-22 19:01:35</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853769.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>接收专业：物理、微电子、材料、新能源相关实验条件：有团队、有设备、有资金、有规划、有发展.......发送简历到：tiaoji_2021_qdu@163.com之前有发过调剂的建议(面向所有人)，请参考：http://muchong.com/t-14677639-1具体细节如下一、拟接收调剂专业1. 实验室接收专业：物理学、应用物理学、光学工程、材料学，新能源（化学专业：如高分子、无机化学、有机化学等 不接收）（上面专业无适合你的款式，往下看）2. 青大物理学院可接受调剂专业：物理学、应用物理学、光电信息科学与工程、材料科学与工程、新能源科学与工程、微电子科学与工</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:59:23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853754.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022年长江大学材农学类招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>本课题组招收优秀的调剂生，老师信息如下：王宏伟副教授和丁双成副教授，长江大学作物学，一流高校一流学科，主要研究玉米耐逆，王老师以第一作者在 NATURE GENETICS发表论文，丁老师以第一作者在 PLANT CELL发表论文。去年毕业三位学生都已发表见刊sci（一位2篇一作二区sci，一位1篇3区一作sci，一位1篇一作2区sci和一作三区sci）。   本课题组科研实力雄厚，老师性格温和、能力突出，目前主要招收 09 农学一类的调剂生，如有意向，请联系课题负责人：陈会丽(362431740) 陈宇航（1403761227）   本课题组调剂小要求：请预调剂同学一定要有</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:58:23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853750.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022年西安工业大学光学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>西安工业大学刘欢教授“宽光谱量子点成像”科研团队接收5名调剂学生西安工业大学光电工程学院始建于1955年，是西安工业大学建校首批招生的院系之一，学院拥有科技部光学先进制造与光电检测示范型国际科技合作基地、先进光学成像系统国家重点实验室（培育）、教育部薄膜与光学制造技术重点实验室、陕西省薄膜与光学检测重点实验室等科研平台。  光电学院拥有光学工程博士后科研流动站，光学工程一级学科博士授权点；硕士学位授权学科包括：光学工程、测试计量技术及仪器、精密仪器及机械、武器系统与运用工程、兵器发射理论与技术。其中光学</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:56:58</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853725.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022年中国民航大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>中国民航大学材料科学与工程（080500）招收硕士研究生中国民航大学（Civil Aviation University of China）是中国民用航空局直属的一所以培养民航高级工程技术和管理人才为主的高等学府，是中国民用航空局、天津市人民政府、教育部共建高校三方共建高校研究方向（03）新型材料设计与制备该方向对新型纳米材料进行计算机模拟和设计，应用前景广泛，特别欢迎物理学和材料学背景，喜欢计算机模拟工作的同学报考该方向研究生，会编写程序的同学优先考虑，报考类型为学硕，本科学校不限。考试科目：（1）101政治（2）201英语（3）301数学一或30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:55:37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853722.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学先进纤维与功能材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>天津科技大学轻工科学与工程学院先进纤维与纸基功能材料团队面向我国在造纸、能源、生物、环保、国防、包装等领域对新材料的重大需求，以天然纤维与合成纤维为先导，以非织造和湿法造纸等关键技术为核心，以纸基功能材料应用创新为重点开展研究，努力创建国内一流的纤维材料高水平科研平台。     团队负责人为天津科技大学副校长，荣获“全国创新争先奖”“百千万人才工程”国家级人选、全国中青年突出贡献专家、国务院政府特贴专家、全国纺织科技创新领军人才、天津市高层次创新型科技创新领军人才、天津市学科领军人才培养计划、天津市首</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:54:16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853719.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院油气田开发、力学、数学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>招收油气田开发方面的硕士研究生，也非常欢迎力学、数学、计算机科学等方面的学生报考。基本要求如下：1、做事踏实，学习勤奋；2、至少通过英语4级，通过英语6级者优先。欢迎有意向的同学与我联系。本人简介：肖老师，男，1987年生，副教授，重庆市巴渝学者，招生方向为油气田开发。2015年毕业于中科院渗流所，同年开始工作于重庆科技学院。主要研究方向为非常规油气田开发，在致密油气储层多元综合评价、页岩气甜点优选、煤层气可采性评价、微纳尺度渗流等方面形成了特有的理论及技术，主持国家级、省部级及油田横向项目20余项，在研科研</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:52:44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853713.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022年上海海洋大学渔业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>上海海洋大学联培单位-山东省海洋资源与环境研究院（山东烟台）招收报考水产、渔业等农学硕士调剂生1名（将攻读专业硕士-渔业发展专业）！！！主要从事海洋生态学及毒理学研究工作！！愿意调剂的优秀考生请速联系！！李老师，albert0722@163.com。并附个人资料（初试成绩、本科课程及成绩等）关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:51:36</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853706.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>（学硕）2022年广州医科大学生物医学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>调剂专业名称是生物医学工程，学硕，统考科目 必须 为“英语（一）、数学（一）”广州医科大学为2022年新晋 双一流 高校。课题组研究方向需要本科阶段学过基本的光学或化学或者材料或者药学或生物等任一学科背景。不用太担心跨专业，我手把手带学生做实验，要求学生勤奋即可。网上申请调剂时，请先与导师联系，zhanjunli@gzhmu.edu.cn，经同意后再申请网上调剂，请选择导师李战军教授。本课题组为广医南山学者特聘教授李战军团队。李战军毕业于中国科学院大学，先后在韩国（kaist)、美国麻省大学医学院（umms）从事博士后研究，2020年12月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:50:43</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853699.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022年 五邑大学化学工程与技术、材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>欢迎报考化学工程与技术、材料科学与工程及相关方向的考生咨询一、学校介绍  五邑大学为广东省高水平理工科大学建设高校。学校地处粤港澳大湾区腹地江门市，是我国著名侨乡和海滨城市，有“中国第一侨乡”之称。学校1985年建校，1990年成为学士学位授予单位，1998年成为硕士学位授予单位，2017年成为具有推荐优秀应届本科毕业生免试攻读硕士学位研究生资格高校。学校现有10个省级重点学科，6个一级硕士学位授权点和5个独立二级硕士学位授权点（共27个二级硕士学位授权点）和工程硕士、教育硕士两个类别共10个专业硕士授权领域，在职教职工</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:48:59</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853697.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院治金物理化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>重庆科技学院冶金学院石永敬副教授拟招调剂研究生4-5名，分别是化学学硕、资源与环境工程冶金方向专硕、资源与环境工程材料方向专硕。石永敬副教授主要研究领域为纳米材料、固态电池领域，冶金智能控制系统领域。拟调剂学硕要求化学专业的学生，资源与环境专硕要求冶金、材料、机械、智能、电气、通信工程专业相关的学生。联系方式: 15902341971，yjshi@126.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:46:28</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853690.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022年上海应用技术大学化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>各位2022级考生，您们好！上海应用技术大学的黄莎华老师课题组，现接受硕士调剂生2名(一名专硕一名学硕）。本科为制药工程，化学工程与技术，有机化学等专业，有一定有机化学基础和实验基础的同学优先考虑、成绩（单科、总分）需达到国家2022年复试（a类考生）最低控制线要求。可参考：上海应用技术大学上海应用技术大学2021年硕士研究生招生考试调剂信息https://gs.sit.edu.cn/2020/0220/c5648a184690/page.htm可参考：上海应用技术大学2022年上海应用技术大学硕士研究生招生简章https://gs.sit.edu.cn/2021/0911/c5706a201762/page.htm学</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:44:51</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853686.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022年安徽理工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>招生单位：安徽理工大学材料科学与工程学院招生性质：统考硕士研究生/调剂生招收专业：材料物理与化学、材料学等专业。欢迎具有材料、物理、化学专业等相关背景的学生报考和调剂调剂要求：单科和总分均达到国家A区分数线，统考科目必须考数学读研待遇：除学校的研究生奖学金和生活补助费用之外，课题组也有较好的助研津贴和科研成果奖励。住宿条件：住宿二人间，独卫，空调，热水器学校简介：安徽理工大学是安徽省重点建设的特色高水平大学，是安徽省和国家安全生产监督管理总局共建高校，是国家中西部高校基础能力建设工程支持建设的高校</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:43:41</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853683.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022年 青岛理工大学结构工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>青岛理工大学土木工程学院2022硕士研究方向：frp 加固钢筋混凝土结构；组合结构与复合材料；高强混凝土结构；结构分析与模拟；混凝土结构短期和长期性能研究。招生方向：欢迎土木工程等专业背景的同学申请。欢迎有保送名额的学生申请，同时欢迎同学报考。招聘要求：1. 优先考虑具有土木专业背景的同学；2. 特别欢迎具有较强的英语阅读和写作能力的同学，发表过sci论文者优先考虑;3. 特别欢迎本科期间有土木实验基础的同学；4. 喜欢科研工作，特别欢迎将来有读博、出国等从事科研工作的意向的同学优先考虑；5. 身体健康；6. 勤奋刻苦，工作</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:41:01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853682.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022年西南石油大学石油与天然气工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>任妍君，西南石油大学石油与天然气工程学院 副研究员，硕士生导师，近几年研究方向：非常规油气井工作液新理论新技术。导师简介：https://www.swpu.edu.cn/sgy/szdw/jsml/jsml1/js1/ryj.htm【招生方向】功能化纳米材料/智能材料/抗温耐盐聚合物/乳液等方面新材料的制备、性能及其在油气钻探中的应用(如图)。【招生基本要求】1.材料/化学相关专业，尤其是有高分子化学、功能性生物材料、纳米材料学习和实验经历的；2.总分300分及以上，单科过国家线；3.考数学；4.过英语六级。                       【温馨提示：不满足招生要求的，请勿发</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:40:01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853679.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院治金物理化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>重庆科技学院冶金学院石永敬副教授拟招调剂研究生4-5名，分别是化学学硕、资源与环境工程冶金方向专硕、资源与环境工程材料方向专硕。石永敬副教授主要研究领域为纳米材料、固态电池领域，冶金智能控制系统领域。拟调剂学硕要求化学专业的学生，资源与环境专硕要求冶金、材料、机械、智能、电气、通信工程专业相关的学生。联系方式: 15902341971，yjshi@126.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:36:55</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853678.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022年南方医科大学硕士研究生招生考试调剂工作的说明</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>各位考生：近日有不少考生电话或邮件咨询我校2022级硕士研究生招生调剂信息，现将相关事宜说明如下：我校调剂信息（调剂院系、调剂专业、调剂要求及程序）需待教育部公布进入复试的初试成绩基本要求及相关录取政策后，根据实际招生计划以及具体上线情况确定，相关信息会及时公布到本网站及相关院系网站（预计3月中旬前后），请考生密切关注。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:34:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853675.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022年上海工程技术大学化工材料环境招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>中心概况上海工程技术大学环境与资源创新中心（icer）正式成立于2020年，是由李光辉博士、胡立江博士和张楠博士三位国家级人才领衔，以尖端前沿技术研发、高端人才集聚、产学研结合为特色的校级新型研究开发机构。中心团队现有成员18名，其中国家级人才3名，教授5名，客座教授3名，副教授4名，讲师6名；具有海外博士以及海外学习工作经历者13名。中心主要研究方向包括1). 先进碳化硅陶瓷膜技术、2). 绿色电驱动脱盐技术、3). 先进环保功能材料、4). 环境与化工过程集成优化及5). 生命周期评价与碳足迹评估。中心承担多项国家自然基金及青年</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:35:42</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853674.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022年山东建筑大学材料科学与工程专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>招收1-2名材料学或者材料物理与化学方向的研究生。主要研究方向纳米能源材料。联系方式：sunnysdu@outlook.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:34:43</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853671.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022年江西科技师范大学有机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>江西科技师范大学孟老师课题组招收理学（生物医药及化学等相关）考研调剂生江西科技师范大学有机功能分子研究所孟玮博士课题组招收报考理学（生物医药及化学等相关）专业考研调剂生，有机化学-化学生物学方向。主要研究方向为神经生理学，研究生培养期间主要学习神经科学理论，掌握膜片钳、脑片及在体电生理学技术等热门神经科学研究方法，同时掌握神经解剖学和组织学、动物行为学的常用研究手段。该学科是毕业申请出国深造，或推荐攻读国内重点大学博士学位，以及生物医药类研究生就业的优势学科方向。招生调剂要求：院校不限，报考理学（</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:33:14</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853669.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022年江苏大学环境科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>朱道辰教授，神户大学博士，美国华盛顿州立大学访问学者， 2011年度江苏省科技创新团队核心成员、江苏省六大人才高峰人才、双创博士。近年来发表SCI论文40余篇，授权发明专利和PCT专利8项。团队由副教授、博士后、博士和硕士等在内近20人的不同层次梯队构成，承担了国家重点研发计划、江苏省重点研发计划等多项国家省级项目等，经费充足，并且与美国、日本等多个团队形成紧密合作关系。团队的研究领域包括但不仅限于：（1）农林废弃物的微生物分解机制与资源化利用；（2）环境微塑料的生物降解技术；（3）环境污水生物处理技术。（4）生物</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:31:46</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853668.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学高分子材料与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>调剂基本要求：1.本科为材料、化工类均可调剂，高分子专业优先；2.初试成绩达A区国家线要求（单科、总分）。“高分子材料与工程”专业为天津市品牌专业，并于2019年通过教育部工程教育认证受理专业，2021年国家一流专业认证点。此贴不回复，有意向的同学请发邮件于996166136@qq.com邮箱，谢谢关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:30:28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853666.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022年黑龙江大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>黑龙江大学材料科学与工程专业硕士研究生现全面接收相关专业学生调剂；要求有化学、生物、材料、应用化学等专业背景，并参加高数二全国统考，只要你达到了国家分数线，就可以与我联系。  导师简介：博士，研究员，37周岁。主要从事功能配位材料和纳米功能材料的研究。迄今，已主要参加并完成省级基金项目四项，主持在研国家自然科学基金、教育部博士点基金、省自然科学基金（面上）、省教育厅创新人才支持计划、哈尔滨市科技局创新人才项目各一项，2015年入选黑龙江大学首批学术青年骨干百人支持计划。迄今，研究成果已在Chem. Eng. J,J.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:07:11</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853581.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022年北京石油机械工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>北京市能源工程中心水下先进连接团队荆丰梅老师课题组接收调剂，专硕学硕均可调剂。一、 调剂要求①招收机械工程、机械设计、电气自动化、水动力、海洋工程等专业（流体力学，水动力，海洋工程相关专业优先）。②初试成绩（单科、总分）符合工科一类地区的要求。③软件方面会ansys 、 fluent的优先（非强制）。二、主要研究方向海洋可再生能源装备研究（潮流能、波浪能、风能等能源开发）三、 联系方式有意向的考生可发邮件到邮箱：1131400857@qq.com  微信号：17300736757QQ号：1131400857 四、导师简介荆丰梅 ，女，1982年生，博士，教授</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:06:04</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853576.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022年北京机械工业自动化研究所控制理论与控制工程、计算机应用技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:05:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853568.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022年江汉大学化学化工材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>位于湖北省武汉市的江汉大学光电材料与技术学院招收硕士研究生，学校地理位置优越，环境优美，学术气氛浓厚，科研条件好。常年接受专业背景为化学化工，材料，凝聚态或固体物理，药学食品等大类专业，有志于攻读研究生的同学的考研咨询。无地域、第一学历、专业、性别等偏见，课题组提供有特色的实验平台和研究方向（拥有核磁共振等大型高端仪器），为研究生提供有竞争力的研究津贴和自由平等的成长成才空间。课题组隶属于光电化学材料与器件教育部重点实验室，导师和蔼，专注科研，全程用心指导，保证研究生能心无旁骛的投入科研及可及的</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:04:55</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853565.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022年汕头大学控制理论与控制工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>欢迎具有良好数学和英语基础，对多智能体系统协同控制研究感兴趣，有意愿调剂过来读研的同学请将个人简历和成绩单发送邮箱stu_amzou@126.com。个人网址：https://eng.stu.edu.cn/info/1084/1857.htm关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:03:39</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853546.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022年南京林业大学材料加工工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>报考南京林业大学材料科学院-材料与化工专业，或者是想调剂的同学可以发邮箱或加我qq。调剂要求：（1）要求专硕考生，只材料与化工专业的同学；（2）本科专业最好材料方向，过六级；（3）做事有条理，积极进取。令国家线之后才知道具体调剂名额，有高分同学可在国家线分数线之后再行咨询。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:02:28</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853542.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学 仿生材料与核环境招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>一、课题组简介   仿生材料与核环境安全实验室（bsm  nes lab）依托西南科技大学环境友好能源材料国家重点实验室、核废物与环境安全国防重点学科实验室、四川省军民融合研究院、生物质材料教育部工程研究中心等平台，由具有化学、材料、生物、环境等专业背景的教师和研究人员组成，现有博士生导师4名，硕士生导师5名，在校研究生20余名。近年来，课题组围绕国家能源与环境安全重大战略需求，重点开展环境污染修复、光电催化、生物矿化及仿生材料等方向的科学研究与人才培养。课题组与中国科学院、中南大学、中国科学技术大学、中国工程物理</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022-02-22 18:00:32</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853533.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022年青岛科技大学材料生物工程、医学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>青岛科技大学 海洋科学与生物工程学院 王硕教授带领的课题组紧急招调剂生多名， 目前课题组主要从事琥珀化石与基因组学研究，收集有国内外数量最多的琥珀化石，采用多学科研究手段解析重要动植物类群的起源和进化，成果发表于science等多个国际顶尖杂志上发表。我们非常欢迎有志于科学研究的同学提出申请，根据个人兴趣和学习基础，开展有意义、有价值的研究工作。依据学校调剂要求，报考专业代码必须08开头，调剂要求专业课必须考数学一或数学二，第一报考志愿为生物学有关专业（08专业开头；其中有植物学，昆虫分类等分类学基础的优先考</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:58:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853518.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022年天津医科大学传染病（肝病方向）招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:58:51</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853512.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022年大连医科大学基础医学院生物化学教研室生物化学与分子生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>大连医科大学基础医学院生物化学与分子生物教研室董伟杰教授课题组拟招收2022级硕士研究生3名（理学），招生专业：生物化学与分子生物学，专业代码：071010。董伟杰教授，硕士生导师，日本东京农工大学博士，日本产业技术综合研究所(AIST）博士后，2013年大连医科大学其震工程人才引进归国，任职于大连医科大学基础医学院生物化学与分子生物学教研室。董教授为人谦和，严谨。对待科研严肃认真，条理清晰；对待学生耐心细致，为人师表；工作兢兢业业，成果斐然，得到国内外同行的一致认可与肯定。同时桃李满天下，所带毕业生在研期间可发表</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:57:29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853502.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>导师简介：范汶鑫，博士，青岛大学特聘教授，副教授。主要研究方向包括：1.水凝胶基致动器/软体机器人；2.水凝胶基柔性可穿戴设备；3.智能水凝胶在渗透能收集、污染物检测与去除等领域中的应用。近三年已指导学生在scienceadvances、angewandtechemieinternationaledition、advancedfunctionalmaterials、acsnano、small等国际顶尖期刊上发表sci论文10余篇；承担国家自然科学基金、中国博士后科学基金面上项目、山东省博士后创新项目等多项科研项目。课题组与复旦大学、浙江大学、南开大学、四川大学、山东大学等知名高校保持合作，优秀研</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:57:23</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853498.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022年福建医科大学神经病学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:55:50</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853492.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022年安徽工业大学钢铁冶金招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>请将姓名，手机号，本科院校与专业，四六级分数，报考学校与专业，报考科目与分数，个人简历发送至167894781@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:56:07</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853491.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022年上海应用技术大学化工学院招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>上海应用技术大学—化工学院—刘传祥课题组-诚邀2022届考研学子（制药工程，化学工程与工艺专业，应用化学、成绩（单科、总分）需达到国家2022年复试（a类考生）最低控制线要求）选择加入本课题组。欢迎有意向的同学及时咨询联系！课题组负责人：刘传祥教授， 邮箱：cxliu@sit.edu.cn 招生负责人：陈曦，邮箱：chenxx15076558178@163.com  手机：15076558178（微信同号）请发送“简历及考研分数情况”到邮箱cxliu@sit.edu.cn或chenxx15076558178@163.com，邮箱主题请注明：【调剂】+姓名+总分+是否考高数+毕业院校，可以添加微信150765581</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:54:36</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853489.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022年吉林大学第二医院骨科招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:54:05</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853477.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022年四川轻化工大学材料工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>各位学弟学妹：大家好！我是四川轻化工大学材料工程研三的师兄，现帮导师林修洲教授招收研究生（也可报考其他导师），有愿意调剂的学弟学妹欢迎了解一下，具体情况如下：一、    招收类别：0817Z3 腐蚀与防护；0817Z5 材料化学工程；085601 材料工程（专业学位）；二、    要求：材料、化工专业优先，考过数学的理工科学弟学妹也欢迎咨询；三、    研究方向：材料失效与保护、微区腐蚀、轻合金表面处理、涂料、阴极保护、缓蚀剂等；四、    奖助政策：1．研究生国家奖助金全日制硕士研究生国家奖助金有：研究生国家奖学金、研究生学业奖学</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:53:13</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853469.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022年长江大学农业昆虫与害虫防治招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>一、招收人数：2人。二、学术型硕士或专业型硕士。三、导师简介：张国辉，博士，副教授，博士、硕士生导师。2012年博士毕业于西北农林科技大学农业昆虫与害虫防治专业，2013年入职长江大学农学院从事教学科研工作。2019年在美国Texas AM University 从事为期一年的研究工作，同年入选长江大学“长江人才计划”-领军人才。四、主要研究方向：昆虫化学生态学：对具有经济重要性昆虫的化学感受器，虫体内化学感受通路研究；研究内容为昆虫化学感器的种类和分布、化学感受相关蛋白的功能研究、害虫中枢神经系统对混合物的编码破译。个人主页如</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:50:29</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853466.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022年青岛大学附属医院著名泰山团队内分泌科招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:50:50</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853447.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022年沈阳工业大学（辽阳校区）化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>一、根据2022年第一志愿报考石油化工学院研究生的初试成绩，学院化学工程与技术学硕，材料与化工专硕仍有部分调剂名额，欢迎优秀考生调剂到石油化工学院攻读硕士研究生。二、研究方向1. 学硕研究生的研究方向化学产品工程、化工过程强化、精细化学品合成、新能源材料化工、资源循环与绿色工艺。2. 专硕研究生的研究方向反应与分离工程、新型功能材料与制备、化工新材料制备与绿色工艺。三、调剂要求1. 调剂复试的考生必须达到教育部规定的2022年的A类地区最低复试分数线(总分、单科分)。2. 调剂专业与第一志愿报考专业相近或相关，考试科目</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:49:16</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853426.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022年郑州大学第一附属医院生物细胞治疗中心张毅教授团队生物工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:47:48</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853412.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022年五邑大学药物化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>（1）考研初试成绩总分和单科达到A区分数线 （2）初试考药学综合联系方式: QQ：2940719324 电话：18029685228关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:45:54</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853406.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022年郑州大学第一附属医院生物细胞治疗中心张毅教授团队肿瘤学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:45:40</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853389.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022年天津市人民医院夏英鹏主任课题组招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:43:06</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853366.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022年河南大学生物学、药学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>河南大学是“双一流”建设高校。河南省脑靶向生物纳米药物重点实验室由河南大学生命科学学院和药学院共建共享，打造从生命基础学科到药学转化的交叉融合国际化的高水平实验平台。实验室的研究内容主要包括以下三个方面：脑部疾病分子机制，脑部疾病关键靶点结构解析、脑部疾病临床前评价体系。重点实验室将发挥各创新平台优势，为研究生提供前所未有的多元化，多学科交叉的培训和研究环境。2022年拟在脑部疾病、纳米药物递送、蛋白质结构和功能领域招收调剂生，诚邀优秀的学子到本实验室攻读研究生。联系人：师老师，邮箱：bs@henu.edu.cn</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:43:57</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853365.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022年温州大学化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2022年硕士研究生招生----温州大学 化学与材料工程学院 ---夏远志课题组  温州大学物理有机化学课题组，现有4名导师，18名在读研究生，主要从事有机及金属有机化学反应机理、有机合成方法学、绿色化学三方面的研究。本课题组每年招收化学、材料科学与工程、有机化学、资源与环境等相关硕士研究生5-8名。团队导师相关信息见课题组网站。   本课题组科研团队拥有较强的科研实力和良好的科研氛围，欢迎你的加入！  课题组网站：https://www.x-mol.com/groups/xia_yuanzhi  教师主页：http://chem.wzu.edu.cn/info/1020/24496.htm  联系方式：</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:42:35</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853350.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022年五邑大学材料工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>（1）考研初试成绩总分和单科达到A区分数线 （2）初试考数学，制药工程、化工、食品、环境等相关专业 ，且须考数学关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:41:02</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853324.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022年四川理工大学材料学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>盛玉萍, 工学博士，副教授。博士毕业于吉林大学/材料学专业（与中国科学院长春应化所联合培养），于2015年入职四川轻化工大学（原四川理工学院）。主持国家自然科学基金2项，市厅级项目2项。申请发明专利十余项，近年来在Materials Chemistry Frontiers，Langmuir，Soft Mater等国内外知名期刊上发表论文十余篇。课题组主要研究方向包括：聚合物纳米材料的制备及机理研究、高频高速通讯（5G）用聚合物制备与应用、可降解聚合物制备与应用等。     因开展工作需要每年拟招硕士2~3名，欢迎各位有意向的同学报考~（招收调剂考生）   可根据个</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:39:52</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853296.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022年浙江工商大学食品科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>浙江工商大学食品微结构实验室招收3-5名硕士研究生。要求过学校分数线，具备较好的英语阅读和书写能力。未来将从事食品微结构、界面工程和营养物质递送等方面的研究。实验室氛围良好。欢迎有意向的同学联系 qq：419315927，李老师。添加时记得备注考研。目前只接受第一志愿的同学，暂时不考虑调剂关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:38:50</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853259.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院健康环境研究院工程管理、工程造价等招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:38:20</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853255.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022年济南大学化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>教育部山东省共建高校济南大学前沿交叉院 逄金波老师招1名化学专业研究生070300教育部山东省共建重点学校济南大学前沿交叉科学研究院 2022年 需要1名调剂研究生。济南大学前沿交叉科学研究院 逄金波 （Pang Jinbo）老师，研究方向：石墨烯等新颖二维材料的热沉积法合成及应用探索。德国海归博士（全球top 200高校）、德国博士后。招收一名调剂考生，拟录取专业为：070300 - 化学专业。备注：前沿交叉科学院的硕士毕业生，有很多赶赴世界名校去读博士或联合培养博士（加拿大国立科学研究院、新加坡国立大学、新加坡南洋理工大学等等），或赶</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:37:44</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853247.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022年黑龙江大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>黑龙江大学材料物理与化学专业研究生调剂工作即将开始。孙丽萍教授课题组诚招有志向在化学电源领域进行科研工作的年轻人加入。本研究组为固体电化学及器件研究组,研究方向是纳米材料电化学，新型化学电源及器件，主要包括固体氧化物燃料电池，金属空气电池，电催化领域相关材料的设计合成及电极反应机理研究。隶属于无机功能材料化学教育部重点实验室。我们研究组教授7人，副教授4人，科研实力雄厚，主持在研的国家级项目6项，省部级项目10余项，科研经费充足，组内拥有全套的高温电化学、溶液电化学以及光电化学测试仪器，可以招收博士生</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:36:41</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853240.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022年河北大学生物化学与分子生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>专业代码:0710（学硕）08（专硕）专业:生物化学与分子生物学（学硕）生物与医药（专硕）招生人数:4（个人简历中需包含报考院校，以及初试成绩，谢谢）1) 所学专业为生物学相关专业，了解常规分子生物学实验，动手能力强，对rna生物学研究有浓厚兴趣或有相关经验的申请者将优先考虑，有生物信息学或计算机基础的申请者优先考虑。2)通过大学英语4级考试，专业课学习成绩良好。3）对科研有浓厚兴趣，主动性强、富于吃苦耐劳和团队协作精神。   瞿国胜教授2018年10月作为拔尖人才特聘教授，博士生导师，加入河北大学生命科学学院，组建rna生物</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:35:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853217.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022年 哈尔滨工业大学生物医学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>哈尔滨工业大学生物医学工程专业王广通副教授招收硕士研究生1-2名。王广通副教授近年来主持国家自然科学基金青年基金在内的科研项目5项，国防项目子课题1项，参与科技部国家重点研发计划重点专项1项。在专业领先期刊上发表SCI论文16篇。欢迎生物、化学、材料，微电子背景的优秀考生咨询。招考信息：学校：哈尔滨工业大学学院：生命科学与技术学院专业：生物医学工程学制：2-3年王广通副教授联系方式:wgt@hit.edu.cn。邮件中请注明学校、成绩并附个人简历。王广通副教授详细信息可见哈工大教师个人主页：http://homepage.hit.edu.cn/wanggu</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:33:49</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853164.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022年烟台大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021年烟台大学精准材料高等研究院接收调剂研究生（全日制）研究院现有教授及副教授等13名。建有材料基因工程重大基础研究实验室、高性能合金与核心部件制造工程实验室、组织与性能检测评估中心，仪器设备总值近5000万元，实验设施完备。现承担国家重点研发计划、国家重大专项、国家自然科学基金、山东省顶尖人才项目、山东省“一流学科”建设项目等，研究经费充足。研究院聚焦材料基因工程、高性能材料设计及其关键构件制造技术等方面的研究。2022年拟在材料科学与工程（材料基因工程、材料学、材料加工工程）、材料与化工（金属材料与加</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:32:26</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853156.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院健康环境研究院建筑环境与能源应用工程、给排水科学与工程、土木工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:30:33</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853146.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022年重庆科技学院健康环境研究院建筑环境与能源应用工程、给排水科学与工程、土木工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:30:33</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853146.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022年 青岛科技大学轻工技术与工程，林产化学加工工程，生物质化工，化学工程与技术，生物科学与技术，材料，环境招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>导师姓名：逄锦慧职称：副教授学术成果：发表高水平SCI论文20余篇科研项目：主持国家自然科学基金1项，主持山东省自然科学基金1项，主持青岛市博士后基金1项，主持重点实验室开放课题4项，校级科研项目2项。研究方向：主要从事纤维素改性以及纤维素基复合功能材料，如湿敏膜传感材料、智能水凝胶材料、生物质超级电容器以及水溶性醋酸纤维素制备和机理的相关的研究。招收调剂研究生要求：调剂名额轻工技术与工程，林产化学加工工程，生物质化工，化学工程与技术，生物科学与技术，材料，环境等相关专业，报考数二，学硕、专硕都可。联系方</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:31:25</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853141.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022年青岛农业大学微生物传感领域招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Caroline S. Harwood，美国华盛顿大学教授，现为青岛农业大学“特聘教授”。Harwood于2009年评为美国科学院院士（Elected Member, National Academy of Sciences）。Harwood院士是位在生物能源、微生物生理学领域享有国际声誉的科学家。目前青岛农业大学正为Harwood院士招聘2-3名计算机科学、计算机视觉、人工智能、分子生物学等专业硕士研究生。杨建明，青岛农业大学，生命科学学院，教授。主要研究方向：（1）微生物传感领域。近年来先后主持国防科工委项目、国家自然科学面上基金、山东省面上基金、青岛市科技攻关项目、青岛市建委等课</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:30:20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853133.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022年上海海洋大学食品科学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>调剂：上海海洋大学生物与医药专业，要求考数学，总分310以上者联系，报考信息、成绩和简历发送邮箱bsjiayou0912@163.com，微信不回复关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:28:24</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853097.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022年电子科技大学硕士研究生招生咨询答疑（一）近期普遍性问题集中回复</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:20:08</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22853043.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022年哈尔滨工业大学生物医学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>哈尔滨工业大学生物医学工程专业王广通副教授招收硕士研究生1-2名。王广通副教授近年来主持国家自然科学基金青年基金在内的科研项目5项，国防项目子课题1项，参与科技部国家重点研发计划重点专项1项。在专业领先期刊上发表SCI论文16篇。欢迎生物、化学、材料，微电子背景的优秀考生咨询。招考信息：学校：哈尔滨工业大学学院：生命科学与技术学院专业：生物医学工程学制：2-3年王广通副教授联系方式:wgt@hit.edu.cn。邮件中请注明学校、成绩并附个人简历。王广通副教授详细信息可见哈工大教师个人主页：http://homepage.hit.edu.cn/wanggu</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:16:29</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852897.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022年广东工业大学光学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>一、概况先进光子技术研究院（简称光研院）是秦玉文（原国家自然科学基金委信息科学部常务副主任）教授组建，主要聚焦于新型光纤通信与保密通信、高性能光纤传感与测量、光电集成器件与智能信息处理等研究方向。近几年光研院发展迅猛，今年光学工程专业有少量调剂名额，欢迎有理想、有抱负的学生加盟。二、研究特色与优势光研院拥有国家杰青2名、国家优青2名、珠江领军人才2名、教育部新世纪人才1名、省杰青2名，建有广东省信息光子技术重点实验室。现承担国家重点研发计划、国家重大科学仪器研制、国家杰出青年基金等项目，科研经费充足，</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:15:04</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852835.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022年西京学院岩土工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>过A区国家线，录取后学费、住宿费全免，生活费600每月，奖学金全覆盖联系方式: 2022土木水利调剂QQ群：816692864 何科长QQ：315705804关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:13:13</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852804.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>四川大学2022年硕士研究生招生热点问题解答</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:10:36</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852762.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022年五邑大学化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.我们是五邑大学生物科技与大健康学院李滨教授课题组，现招收化工、应化、有机、制药等专业且考数二的考生若干。2.本课题根据学生特点培养研究生，课题组内氛围融洽，经常组织聚餐、野餐等活动联络师生感情。3.每年补贴合计1.2万以上，可供学生在校生活。学校提供免费住宿。4.毕业时，均发表sci二区以上论文。（该水平可用于在国内轻松申请博士职位)5.本课题组每年保底发表3篇sci论文，均处于化学界期刊中上水平。（如过去一年在Chemical Society Reviews发表综述论文，影响因子为38.6，目前是本校影响因子最高的文章）6.根据学生科研成果</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:11:57</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852678.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022年集美大学计算机工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>研究领域：计算机视觉、图像与视频处理、三维重建等，具体包括：图像三维重建、目标检测与识别、图像配准、深度学习理论及其应用、无人机遥感系统。对调剂专业和成绩的要求：计算机科学与技术、软件工程、通信与信息系统、信号与信息处理等相关专业，报考必须学硕（不接受专硕）。请有兴趣的学生将个人简历、本科期间成绩单、英语四六级成绩、联系方式等材料打包发送至(hanting@jmu.edu.cn或yangshengming1997@163.con)，我们会尽快与您取得联系。自我介绍请包含毕业院校，报考院校，本科期间参加比赛、科研工作、项目实战等经历。欢迎具有</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:10:04</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852659.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022年中国地震局地震研究所地球物理、空间物理、地球物理勘探等相关专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>四、相关网站所网址：http://www.eqhb.gov.cn/yjsjy.htm下属企业（湖北中震科技集团）网址：武汉地震工程研究院有限公司http://www.ieewuhan.com/，武汉地震科学仪器研究院有限公司http://www.whsii.com/。五、联系方式地址：湖北省武汉市洪山侧路48号中国地震局地震研究所研究生招生办公室（913房间）联系电话：027-87114110 传真：027-65390306 邮箱：eqhbyzb@126.com附件1：中国地震局地震研究所研究生招生调剂申请表 中国地震局地震研究所研究生招生办公室 2022年2月22日附件1 中国地震局地震研究所研究生招生调剂申请表姓 名性 别考生</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:07:17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852566.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>课题组网站：www.swust-ems.com彭汝芳，主页：https://www.gs.swust.edu.cn/tuto... spx?zjbh=1020000434女，博士，二级教授，博士生导师，四川省学术与技术带头人，国务院政府特殊津贴专家，全国巾帼建功标兵，四川省三八红旗手，中国化学会化学热力学与热分析专业委员会委员，火炸药燃烧国防科技重点实验室学术委员会委员，中国兵工学会火炸药专业委员会委员，中国兵工学会爆炸与安全技术专业委员会委员，中国宇航学会弹药安全技术专业委员会委员，环境材料与修复技术重庆市重点实验室学术委员会委员，四川省首批青年科技创新研究团队负</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:06:08</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852532.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022年中国地震局地震研究所工程地质、地震地质、工程抗震、构造地质、土木工程、仪器仪表、电子工程、自动化、通信工程、测绘工程、大地测量、遥感技术等相关专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>四、相关网站所网址：http://www.eqhb.gov.cn/yjsjy.htm下属企业（湖北中震科技集团）网址：武汉地震工程研究院有限公司http://www.ieewuhan.com/，武汉地震科学仪器研究院有限公司http://www.whsii.com/。五、联系方式地址：湖北省武汉市洪山侧路48号中国地震局地震研究所研究生招生办公室（913房间）联系电话：027-87114110 传真：027-65390306 邮箱：eqhbyzb@126.com附件1：中国地震局地震研究所研究生招生调剂申请表 中国地震局地震研究所研究生招生办公室 2022年2月22日附件1 中国地震局地震研究所研究生招生调剂申请表姓 名性 别考生</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:05:51</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852510.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022年江苏大学化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>本课题组主要依托江苏大学能源研究院和化学与化工学院，课题组目前研究方向包括能源化学与环境化学。一：招生情况  2022年拟招收硕士研究生4人，其中化学专业，不接受调剂，只接受第一志愿报考江苏大学考生；化学工程与技术专业（含专硕），接受调剂，调剂考生要求初试考数学。二、课题组简介  课题组主要致力于光催化清洁能源的开发与利用以及水体环境净化与处理。  课题组导师姜志锋教授，博士生导师，江苏省特聘教授，江苏省优青。先后在美国哥伦比亚大学化工系、香港中文大学生命科学学院以及香港城市大学能源与环境学院、超金刚石及先</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:04:37</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852489.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022年安徽农业大学生命科学学院招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:02:27</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852469.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022年集美大学机械工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>集美大学海洋装备与机械工程学院弓清忠副教授招收机械工程2022级硕士生，感兴趣的同学将个人详细简历及本科成绩单邮件发送至弓清忠副教授邮箱：gongqz2003@163.com招生对象: 全日制硕士和非全日制硕士招生专业：机械工程（机械）招收人数：3-5人（学硕、专硕皆可）弓清忠副教授介绍：硕士/副教授/硕士生导师，2006年毕业于兰州理工大学，2007年任职于集美大学海洋装备与机械工程学院，2015年5月至2016年4月挂职于厦门市工业与信息化局能源处副处长，2018年3月至8月英国克兰菲尔德大学访问学者，发表文献30余篇，获批专利10余项。主要研究方</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:03:02</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852461.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>导师简介：王逸凡，女，理学博士，副教授，硕士生导师，青岛大学特聘教授。2016年博士毕业于中科院化学所，师从占肖卫教授（北京大学），主要从事有机光伏器件的研究，主要成果发表在Advanced Materials，Advanced Energy Materials, Small, Journal of Material Chemistry. C, Journal of Material Chemistry A等国际主流SCI期刊上。主持国家自然科学基金青年基金，山东省自然科学基金博士基金，中国博士后基金等项目。  目前任职于国家杰青、长江学者团队，团队具有国际一流的实验条件，与北京大学、中科院化学所、北京师范大学、北京化</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2022-02-22 17:01:45</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852438.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022年北京化工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>课题组负责人林艺扬毕业于北京大学化学与分子工程学院（本科和博士），先后在美国俄克拉荷马大学和英国伦敦帝国理工从事博士后研究。2019年被聘为教授和博导，加入北京化工大学材料科学与工程学院，并获得国家级青年人才项目资助。课题组将围绕生物组装、界面化学、生化检测和生物医学应用等领域深入开展工作，借助精确化学合成、先进物理表征和理论模拟等手段来探索与生物体系密切相关的现象和过程。近年来在Nat Nano、Sci Adv、PNAS、JACS、AngewChem、Chem Sci、Adv Mater、Nano Lett、ACS Nano、Adv Funct Mater等国际学术期刊上共发表</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:59:55</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852400.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022年重庆三峡学院文学院文艺学、 汉语言文字学、 中国古典文献学、 中国古代文学、 中国现当代文学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:52:14</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852316.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022年哈尔滨工程大学船舶与海洋工程、动力工程及工程热物理招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>可调剂专业：轮机工程、动力工程及工程热物理、动力工程（专硕）主要研究方向：动力装置振动与噪声控制、内燃机动力学数值模拟、内燃机低噪声设计。调剂要求：普通全日制应届本科生或普通全日制本科毕业生，报考专业与拟调剂专业为相近，符合国家规定的调剂要求。因国家线未出和本校具体调剂要求未出，现参考去年的调剂要求给出基本调剂条件（后续将严格按照学校和学院具体调剂要求和调剂程序执行）：① 本科为985，211或双一流高校，且报考985高校，分数不低于300分；② 数学（一），英语（一）：欢迎热能与动力工程、轮机工程、力学、机</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:52:28</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852315.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022年山东理工大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>一、实验室简介   山东理工大学功能分子材料实验室创建于2016 年，是山东理工大学重点建设的新兴交叉学科实验室。现有教授1 人、副教授2 人；教育部新世纪优秀人才支持计划1 人，博士生导师1 人，硕士生导师2 人。  功能分子材料实验室占地400 平方米，含200 平方米的万级超净间2 间、静音房1 间等，拥有包括Createc 超高真空STM/AFM 、静电纺丝仪WL-2、气体敏感分析系统、细胞PCR 仪等设备，固定设备资产超过400万。二、研究方向超导物理学、传感器、生物医学材料、储能材料等。三、招收方向招收物理类、电子信息类（光学工程方向）、材料</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:51:08</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852296.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022年 齐鲁工业大学生物基材料国家重点实验室应用化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>齐鲁工业大学生物基材料与绿色造纸国家重点实验室招收研究生调剂。齐鲁工业大学刘玉教授团队招收多名具有轻工、化工、化学、高分子、材料、医药、环境、生工、食品等专业背景的调剂考生来校攻读研究生。调剂热线：姜老师 13606371078（微信同号） ；陈老师18764053886（微信313299129）；高敏18766109915（微信同号）基本要求：[1] 初试成绩达到教育部统一规定的a类地区的全国初试成绩基本要求（单科、总分）；[2] 有数学一或者数学二成绩，专业为轻工、化工、化学、高分子、材料、医药、环境等或其他相关专业。导师、团队简介：刘玉，齐鲁</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:49:50</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852273.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022年江苏科技大学MBA招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:46:22</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852258.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学材料学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>欢迎加入本课题组，有意者请将简历发送至邮箱！！欢迎点击课题组网站了解详情：www.swust-ems.com 新型含能材料及其热化学与热安全研究团队具有优秀、负责任的教师队伍；前沿、创新的研究方向和科研课题；充足的科研经费；优良的研究平台；规范的科研管理；良好的学习学术氛围；致力于培养优秀的人才。团队先后培养博士研究生6人，硕士研究生86人，目前，在读博士研究生8人，在读硕士研究生20人。 彭汝芳，主页：https://www.gs.swust.edu.cn/tuto ... spx?zjbh=1020000434 女，博士，二级教授，博士生导师，四川省学术与技术带头人，国务</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:48:03</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852255.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022年华南师范大学光学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>目前本课题组有1-2个学硕和专硕调剂名额用于招收熟悉Comsol或FDTD光学/光电子学仿真的同学报名，简历请发至wqchen1990@163.com。陈伟强研究员简历2016.01-2018.03新加坡南洋理工大学，物理与应用物理系，非线性光学和超快光学，博士后2012.01-2016.03新加坡国立大学，物理系，非线性光学和超快光学，博士2007.09-2011.06南开大学，物理科学学院，物理学，学士2018年获得“广东省青年珠江学者”，同年以“青年拔尖人才”加入华南师范大学生物光子学研究院。主要研究方向1：新型材料及结构的非线性光学和超快光学特性，及其应用于深层生物组</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:45:37</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852221.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年烟台大学精准材料高等研究院材料科学与工程、材料与化工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:44:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852220.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022年山东交通学院计算机科学与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>300分以上联系方式: 15168821079关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:42:17</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852209.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>（专硕）2022年湘潭大学公共管理学院公共管理（专业学位，非全日制）招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>一、学院简介湘潭大学创办于1958年，是一代伟人毛泽东同志亲自倡办的综合性全国重点大学，具备本硕博完整的培养体系。湘潭大学公共管理学院秉承“博学笃行，盛德日新”的校训，弘扬学院“公为天下”的精神，经过十多年的发展，学院拥有公共管理、图书情报与档案管理两个一级学科博士学位授权点，公共管理、图书情报与档案管理两个一级学科硕士学位授权点，并有公共管理硕士（MPA）和图书情报硕士（MLIS）两个专业学位授权点。目前，学院有教职工85人，其中教授27人，副教授27人。拥有博士学位的教师58人，占教师比例89.7%。另从北京大学、</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:41:58</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852191.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022年暨南大学光学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:41:07</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852178.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022年郑州航空工业管理学院土木建筑学院土木工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>郑州航院土木建筑学院面向全国接受2022年土木工程学术型硕士研究生调剂预报名，欢迎符合我校调剂要求的考生选择我校攻读硕士学位。具体调剂信息如下：01硕士点简介我校土木工程学硕点(0814)依托省级重点学科和省级工程技术中心等平台，设有结构工程、土木工程建造与管理、市政工程三个方向，学制3年。生源涵盖土木工程、结构工程、岩土工程、建筑工程、工程管理、工程造价、给排水工程、环境工程、城市规划等专业。土木建筑学院现有教授13人、副教授46人，博士55人，拥有教育部新世纪优秀人才、河南省科技创新杰出青年等一批省级和教育厅学</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:37:47</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852177.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022年沈阳化工大学化工过程机械、机械工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>欢迎调剂2022年沈阳化工大学机械与动力工程学院研究生！ 欢迎莘莘学子来沈阳化工大学机械与动力工程学院攻读硕士研究生，接受调剂的专业包括：动力工程及工程热物理学硕（080700）、能源动力专硕（085800非电气方向）、机械工程学硕（080200）和机械专硕（085500），相同或相关专业均可调剂，专业科目一必考数学(数一，数二均可)！可指导，欢迎咨询。联系方式:欢迎加入2022沈化大机动学院（SHJD）研究生复试调剂qq群：1080029750入群申请请提供个人姓名、初试成绩、毕业院校、报考专业等信息。关注公众号：51考研网，获取更多复试调剂资讯</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:38:53</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852155.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022年济南大学材料学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>招生要求：1、达到国家线；2、积极、努力、上进；3、化学化工等相关专业的学生；4、考研中需要考数学，专业课为材料专业相关（高分子材料优先），报考专业代码需为080500、085600；5、接收2021年符合条件的调剂生。  有意愿调剂的考生请联系qq583464855欢迎各位同学！！！</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:37:31</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852137.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学化工与材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>天津科技大学化工与材料学院 李征征老师招收调剂生李征征，2014年毕业于韩国忠南大学，获得工学博士学位。现为天津科技大学化工与材料学院副研究员。目前主要研究领域智能高分子水凝胶及其生物应用。招收4名调剂生。一、本科为化工，高分子材料类专业均可调剂，要求类别为08工科。硕博连读学生优先。二、学制：学术型硕士学制3年，专业型硕士学制3年。三、学费标准：1．学术型硕士学费为8000元/年；2. 专业型硕士学费为10000元/年（实践环节每生资助2000元）四、奖助学金政策：1. 国家助学金：覆盖面100%。每生每年均可获得国家助学金6000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:35:45</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852124.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022年江苏科技大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>材料科学与工程学院课题组科研条件好、科研氛围融洽，项目经费充足，各类奖学金丰厚，课题组科研奖励丰厚，就业前景好。招生要求：1. 优先考虑具有焊接专业背景的同学；2. 特别欢迎具有较强的英语阅读和写作能力的同学，发表过论文者优先考虑;3. 特别欢迎本科期间有实验基础的同学；4. 身体健康；5. 勤奋刻苦，工作积极主动。联系方式：76141621@qq.com（刘老师）教师主页：http://mypage.just.edu.cn/clkxgc/lk/list.htm具体招生要求及调剂信息请关注我校研究生部网站。欢迎优秀学子报考本课题组！申请方式：申请者请将详细个人简历（包括</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:32:48</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852083.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022年沈阳工大化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>一、根据2022年第一志愿报考石油化工学院研究生的初试成绩，学院化学工程与技术学硕，材料与化工专硕仍有部分调剂名额，欢迎优秀考生调剂到石油化工学院攻读硕士研究生。二、研究方向1. 学硕研究生的研究方向化学产品工程、化工过程强化、精细化学品合成、新能源材料化工、资源循环与绿色工艺。2. 专硕研究生的研究方向反应与分离工程、新型功能材料与制备、化工新材料制备与绿色工艺。三、调剂要求1. 调剂复试的考生必须达到教育部规定的2022年的A类地区最低复试分数线(总分、单科分)。2. 调剂专业与第一志愿报考专业相近或相关，考试科目</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:31:39</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852069.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022年燕山大学化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022年课题组招收硕士研究生简章招生/调剂要求：1．  符合学校招生/调剂要求即考生报考专业代码前四位必须为以下其中之一:081700化学工程与技术，070300化学，085600材料与化工（专业学位）。2．  具有良好的品德，热爱科研，与人为善，有团队协作精神。3．  有电化学、有机化学和计算化学等知识背景优先考虑。4．  良好的实验操作技能和较好的英语水平（CET-6分数在425分以上优先考虑）。待遇：1．  国家补助：600元/月。（入学的全日制学生均享受）2．  学业奖学金：一等8000元；二等4000元；三等1600元。（专业排名前80%）3．  国家奖学</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:30:20</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852058.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022年上海理工大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>上海理工大学材料学院李颖老师课题组欢迎高分子功能材料、复合材料以及化学相关背景的同学加入！以下网址为课题组简介，同学们可自行查看https://www.x-mol.com/groups/li_ying304。有意向调剂的同学请邮件联系。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:27:33</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852039.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料加工工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>要求：过A区国家线，考数学，联系邮箱导师介绍：巩学忠，目前主要从事于功能杂化材料设计合成及其光化学催化反应研究，包括氮化碳合成及其功能化，光催化制氢、二氧化碳还原、有机物催化转化。担任Catalysis Today，Chemosphere等期刊审稿人，现主持国家自然科学基金一项研究方向：共轭聚合物半导体光催化剂的设计合成；氮化碳合成及其杂化功能化；光催化反应、人工光合作用办公电话：17806286598E-mail:xzgong@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:26:18</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22852023.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022年桂林电子科技大学光纤传感、光纤通信和电磁场招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>年级:  2022科研方向： 光纤传感、光纤通信和电磁场接收光电专业/物理专业/通信工程专业/电子信息专业调剂硕士研究生士团队技术负责老师简介：1）教授，有英国著名高校留学多年经历，研究经费充足，除了有国家自然科学基金面上项目、学校高层次人才引进科研启动基金，还有多项与企业合作的横向课题研究经费，实验室在软硬件资源方面配备十分完善，拥有实验设备10台套，学生在学习期间配备全新的电脑设备，能够很好地支撑研究生科研工作；2）目前有10-12人的小组，学习氛围浓厚；3）具有与国内知名企业的合作关系；4）毕业学生都有专利和sc</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:25:03</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851985.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022年临沂大学凝聚态物理招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>临沂大学物理与电子信息学院接受材料，物理，化学，微电子等专业学生，专业科目需要包含数学（数一或者数二），欢迎加入临沂大学物电学院，联系电话18853991834关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:22:43</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851936.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022年西京学院土木水利专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>导师介绍：https://mp.weixin.qq.com/s/HBnt4fqYro5hMNXmkRSq7w关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:19:44</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851921.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022年燕山大学仪器科学与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>疫情当前，请同学们珍惜读研的机会，好好学习，欢迎联系我读研，请注意一般是数一和英一能调剂。我定期查邮箱，有可能不及时回复，望理解1.接收调剂的专业：学硕：080400仪器科学与技术专硕：085407仪器仪表工程专业学位    085410人工智能专业学位2.导师信息概况：  付荣荣，燕山大学电气工程学院仪器科学与工程系 副教授，硕士生导师，博士生导师。 先后主持国家级项目2项（国家自然科学基金面上和青年各1项），主持省部级项目5项：其中主持中国博士后面上项目一等资助项目1项；主持河北省自然科学基金1项；主持河北省引进留学人员资助项</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:21:30</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851920.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022年曲阜师范大学有机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>文江伟，博士，副教授，中共党员，2018年7月至今在化学与化工学院从事教学科研工作。近年来，一直致力于光、电纳米催化的绿色有机合成及小分子活化方面的研究，迄今共发表SCI论文30余篇，IF大于5.0的论文20篇，SCI引用1500余次，申请中国家发明专利3项，已授权2项，产业化1项，美国发明专利1项。2018年7月以来，以通讯作者或第一作者在Org. Lett., Green Chem., And. Synth. Catal., Eur. J. Org. Chem., Chin. J. Org. Chem.等国际知名期刊发表SCI论文15篇，其中SCI一区12篇，三区3篇，IF大于5.0论文11篇。个人主页：https://www.x-mol.c</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:20:01</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851903.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022年上海理工大学MBA/MPA/MEM/MPAcc招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:16:37</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851884.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022年湖北民族大学应用化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>湖北民族大学2022年应用化学硕士研究生接受调剂2名，联系电话15171030400，邮箱weishiyong2007@126.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:16:18</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851876.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>（学硕+专硕）2022年河北联合大学钢铁冶金招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>欢迎调剂华北理工大学冶金工程专业（学硕、专硕）联系方式: qq：417011308关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:14:43</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851861.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022年江苏大学物理化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>研究方向： 1）光电催化 3）新能源转换导师简介：朱相林，副研究员，硕士生导师。详见：https://nyyj.ujs.edu.cn/info/1017/2543.htm现主持国家自然科学基金项目1项，江苏省自然科学基金1项，江苏省高级人才科研启动基金1项。研究经费充足！课题组现有研究生3名，科研学习氛围良好，业余活动丰富！热烈欢迎具有化学、材料等相关背景的的优秀本科生联系攻读硕士学位！！！联系方式: 17305362336关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:12:14</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851853.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022年河南理工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1.招生类型硕士研究生（接受调剂，材料、化学、环境类专业背景）：材料科学与工程（0805）（学术硕士）材料与化工（0856）（专业硕士）2.招收院校名称河南理工大学 材料科学与工程学院河南理工大学是河南省特色骨干高校，具有开展硕博连读资格。材料学院拥有材料科学与工程博士后流动站、一级学科博士点，承担国家重点研发计划、国家自然科学基金重点项目等科研项目。3.学校地址河南理工大学南校区，河南焦作4.课题组简介：本课题组围绕煤矿及建筑用材料的综合利用技术及其作用机理开展研究，重点研究绿色建筑材料、功能性水泥混凝土材料及</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:10:21</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851804.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022年广西师范大学无机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>曾明华教授，“国家自然科学基金杰出青年科学基金”获得者、入选中组部国家“万人计划”科技创新领军人才。主要研究方向：配位体系多级结构转变与物化性能效应关系、复杂分子体系的固-液结构关联、配位导向序列化组装过程及机理。主要特色是综合利用各种质谱、光谱和晶体学技术等大科学装置，从不同物相、多维度、跨尺度揭示复杂体系内在化学行为；寻求特定配位簇与多杂环体系的可控制备与后合成修饰，拓展其在癌症诊疗、能量储存与转换、离子/电子输运等方面的应用。详情请访问课题组网页：http://www.ce.gxnu.edu.cn/2018/1123/c4415a10</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:02:43</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851722.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2022年吉林大学细胞生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>课题组主要研究干扰素诱导基因与病毒蛋白的相互作用在调控病毒感染与复制中的分子机制，为最终相关小分子药物的研发奠定基础。近5年来，在Nature旗下期刊Signal Transduction and Targeted Therapy，Cell子刊Cell Reports，中科院一区期刊CellularMolecular Immunology，Frontiers in Immunology等高水平杂志发表十余篇文章，总影响因子90有余，引用次数600余次，获得国家自然基金等经费支持100余万元。招收报考吉林大学 生物相关专业的硕士研究生联系方式：13578738025，tgy0425@jlu.edu.cn关注公众号：51考研网，获取更多复试调剂资讯！</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:01:59</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851720.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>（专硕）2022年哈尔滨理工大学化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>欢迎各位考生咨询联系方式：1404151128@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2022-02-22 16:00:49</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851712.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2022年江西农业大学基础兽医学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>研究方向：1. 兽药残留检测；2. 荧光探针在食品及公共安全中的应用研究；3. 新型纳米抗菌药物的合成与性能评价。招生：热诚欢迎具有药学、动物医学、食品安全、动植物检疫、化学、生物学等相关专业背景的学生报考本课题组的研究生。导师介绍：http://dongk.jxau.edu.cn/ca/db/c1183a51931/page.htm关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:59:06</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851689.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022年五邑大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>五邑大学地处粤港澳大湾区重要节点城市、珠三角西部中心城市之一的江门市。江门别称“五邑”，是我国著名侨乡和海滨城市，有“中国第一侨乡”之称。江门自古人才辈出，是梁启超、陈白沙、陈垣和冯如等杰出英才的故乡，江门市出生或祖籍在江门五邑地区的两院院士共32名。生物科技与大健康学院拥有“化学工程与技术”和“药学”2个一级学科硕士学位授权点，并招收“材料与化工”专业硕士研究生；4个学科方向，11个学科团队。学院现有教职工130余名，其中院士1名，双聘院士3名，全职专任教师80余名，柔性高层次人才30多名；全职正高级职称12名</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:58:38</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851681.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022年 昆明理工大学非人灵长类生物医学国家重点实验室细胞生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022年昆明理工大学非人灵长类生物医学国家重点实验室陈凯课题组硕士研究生调剂信息课题组简介陈凯，昆明理工大学灵长类转化医学研究院教授，国家人才引进计划”青年学者。其长期从事早期胚胎发育的转录调控研究，博士毕业于美国斯托尔斯医学研究所，之后在美国斯托瓦斯医学研究所和普林斯顿大学进行博士后研究，发现合子基因组启动过程中核心启动子的差异性使用，首次运用单细胞测序揭示神经脊在脊索动物的进化来源，成功结合单细胞测序和发育生物学手段揭示多巴胺神经元终末分化保守的调控策略。现主要研究脊索动物胚胎发育调控网络和灵</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:58:08</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851678.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022年福建师范大学环境科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>根据2022年硕士研究生初试成绩结果，本学院还有一定调剂名额，现对环境工程/环境科学/环境化学/材料工程，发布调剂公告。本课题组研究方向主要为饮用水源地水质保障、水库中水环境介质迁移转化规律、水源地特征污染物光降解技术等，如特别的对于水中微污染物，利用紫外光/可见光辐照进行均相催化降解，研究催化机理及动力学。研究分子在催化过程中自由基的生成，转化，探究其对降解的贡献程度等。非常欢迎有调剂需要的同学，跟我们联系。环境工程专业需要数一数二。请有需要的同学发简历到邮箱：fushidayjs@163.com关注公众号：51考研网，</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:57:18</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851670.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年太原科技大学光学工程、工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>太原科技大学光学工程专业学硕、光电信息工程专业专硕接受调剂。本科专业、学校不限。考试科目中，英语应为英语一或英语二；数学应为数学一或数学二。另个专业总名额约为20人，招满后不再补录。调剂qq群，群号：279489087，进群时附加消息应备注 姓名+毕业学校+总分。请大家及时关注太原科技大学研究生院、应用科学学院官网发布的信息。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:57:25</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851669.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022年中国林业科学研究院高原林业研究所 生物化学与分子生物学方向招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>中国林业科学研究院高原林业研究所 生物化学与分子生物学方向 接收硕士调剂生1名，主要从事昆虫分子生物学和基因功能研究。要求：1. 真的有志于科研，而不是仅为拿一个学位；2. 勤奋、独立，勤于思考3. 由于实验和出差，主要考虑男生；4. 符合中国林业科学研究院调剂要求。待遇：奖学金科研补贴免住宿费优秀新生可尽早开展实验，参与论文写作与发表有意者请将详细的个人简历附联系方式发送到邮箱：iugogo@126.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:56:02</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851657.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022年地质大学（北京）高分子及其复合材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>中国地质大学（北京）材料学院2022招收调剂生 中国地质大学（北京）（211，双一流高校）材料学院郝向阳副教授课题组2022招收调剂研究生， 导师简介：郝向阳副教授，清华大学材料学院博士后，美国佐治亚理工材料学院访问学者，先后主持或参与包括国防、国家重点研发计划、国家自然基金、NSF(美国自然基金)等纵向、横向项目的研究十余项。发表论文（包括IF17.88的）60余篇,专著十部。研究方向：高分子及其复合材料(纤维、塑料、橡胶、无机/有机复合材料等)，微纳米材料与器件，资源综合循环利用等。往年调剂惯例：1）初试成绩满足国家最低分</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:55:58</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851653.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2022年北京工商大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>北京工商大学 化学与材料工程学院 材料科学与工程系 高分子材料3d打印方向2022年招收硕士研究生。联系人：胡老师（hujing@th.btbu.edu.cn，微信hj_btbu）招生要求：对科研感兴趣，工作认真负责，动手实践能力较强，有团队合作精神，踏实肯干；招生方向：1、本科专业为高分子材料相关专业，包括高分子材料与工程、功能材料、复合材料、纳米材料、材料科学与工程、材料物理与化学、包装工程、轻工技术等相近专业。2、考试初试必须要考数学，且各科及总分均过国家线。3、考试第一志愿报考时所选大类专业为工科。复试专业：材料科学与工程 材料</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:54:36</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851644.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2022年长春应化所电分析国重实验室招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>长春应化所电分析国重实验室肖梅玲课题组由于研究工作需要，现面向全国诚聘推免生/考研（调剂）生。一、导师简介肖梅玲，中国科学院长春应用化学研究所电分析化学国家重点实验室能源转换与电催化课题组组长，研究员，博士生导师。 2017年在中国科学院长春应用化学研究所取得博士学位，师从邢巍研究员，从事燃料电池低贵/非贵金属电催化剂设计及可控合成研究；2017年9月至2021年在加拿大滑铁卢大学陈忠伟院士课题组从事博士后研究，聚焦于氢-氧燃料电池、水电解池、二氧化碳电解池关键材料的原子层级设计与催化机制理解。2021年加入中国科学</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:53:49</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851640.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2022年郑州机电工程研究所材机械工程、兵器科学与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>一、单位简介郑州机电工程研究所创建于1963年4月，坐落于河南省省会郑州市，是专业从事海军武器装备、新能源、交通运输装备、船舶与海洋工程装备和绿色智能装备等领域研究和开发的重点研究所，现拥有国家级、省部级突出贡献专家、技术能手31人，国务院政府特殊津贴专家32人，研究员100余人，高级工程师300余人，博士、硕士研究生340余人。在专业领域，拥有3个硕士学位授权点、2个博士学位授权点和1个博士后科研流动站。二、招生调剂专业：火炮、自动武器与弹药工程兵器发射理论与技术 机械电子工程1.调剂名额：8名；2.调剂方式：定向调剂（</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:53:03</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851614.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2022年黑龙江大学农药学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>计划招收调剂生(学硕）1-2名，熟悉分析化学，无机化学等专业知识，吃苦耐劳、有较好的团队合作精神。调剂要求:考化学专业课或者本科学过无机化学、有机化学及分析化学等等。周芹，博士，副研究员，黑龙江大学农业农村部甜菜品质监督检验测试中心副主任，技术负责人，国家糖料产业技术体系岗位科学家，质检中心目前具有大型仪器设备50余台，具备气相色谱、液相色谱、气相色谱-质谱、液相色谱-质谱等等。目前的研究方向：1 碳纳米材料在农药残留前处理中的应用2 多孔炭材料在水处理中的应用3 农药残留及制剂检测方法研发近五年主持省部级项目</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:52:46</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851612.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2022年石河子大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>坐标新疆石河子，有化工一级博、硕士点，具体信息请加群找“李老师”了解，要求考试科目必须有数学QQ群：1060913952关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:49:30</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851582.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2022年江西理工大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>唐云志课题组有三名导师，分别是：  唐云志教授，毕业于南京大学化学系，博士，博士生导师，江西省主要学科学术带头人，江西省百千万人才，江西省青年科学家。先后指导博士、硕士研究生共计31名，主持国家基金4项（含面上2项），国家863科技支撑计划子项1项，省部级7项，企业委托项目近10项，2020年受邀担任江西省有色金属产业链专家组成员。在 jacs、chem. mater.，appl. mater. today, chem. eur. j., inorg. chem., dalton trans.等国际著名期刊发表论文90余篇；  谭育慧 副教授，毕业于中山大学化学与化学工程学院，博士，硕士生导师，</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:50:55</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851577.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2022年上海海洋大学食品科学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>主要研究方向:益生菌、益生元、发酵食品、化妆品。对考生要求：英语六级，有微生物学、分子生物学基础，勤奋踏实，身心健康。联系方式：qq、微信实时联系:2230231413，备注请写“2022考研调剂-姓名”。注：本专业为三年制硕士，要求考研科目含数学。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:49:10</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851556.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2022年沈阳建筑大学摄影测量与遥感招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>国家统考数学，报考专业08开头，测绘科学与技术相关学科方向，地理信息系统，大地测量与测量工程均可。本人是研究生导师，非招生人员。邮箱12216931@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:48:42</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851499.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2022年苏州科技大学 物理学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>苏州科技大学2021年硕士研究生招生重要信息：物理学专业（理论物理，凝聚态物理，光学）接收调剂生。调剂要求如下：（1）报考专业代码为07开头；（2）要求两门全国统考科目为思想政治理论和英语一；（3）要求初试分数达a类地区国家线。目前还有名额，符合要求者联系441611456@qq.com， 或直接联系15151429886.（光学工程调剂联系401439927@qq.com； 15921528769 ）苏州科技大学硕士研究生招生复试工作办法（线上复试），具体请查看：http://wlxy.usts.edu.cn/info/1148/1684.htm苏州科技大学硕士研究生招生调剂工作办法，具体请查看：http</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:47:22</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851461.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学高分子及复合材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>本实验室在西南科技大学，主要研究高分子材料、纳米材料、介孔材料、国防材料、等离子体，欢迎具有核科学与技术、环境科学与工程、材料科学与工程等相关专业的同学进入我们课题组学习，与我们一起奋斗。只要上了国家线，录取应该问题不大。研究生福利及待遇：（1）我校对研究生的优惠政策主要如下：国家助学金（定向生、非全日制除外）：每生6000元/年，资助比例为100%；生活补贴：每生5000元/年，资助比例为100%；学业奖学金：6000－10000元/年；国家奖学金：获奖者每生20000元；校长奖学金：10000元等。详情可以登录西南科技大学研究生院</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:47:05</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851460.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2022年赣南师范学院电磁场与微波技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>电子科学与技术、电子信息工程、通信工程专业。电气工程与物联网、计算机不适合qq群：828371676关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:45:53</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851456.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学制浆造纸工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>制浆造纸和生物炼制技术团队团队带头人： 王高升教授团队现有6位老师。团队紧密结合制浆造纸行业的 重大 需求，致力于相关领域新技术、新产品的的 开发和工业转化。目前主要 开展的 研究方向或课题有： 农作物秸秆的多产品联产技术 、特种纸技术开发、 纳米纤维素制备和应用技术、纤维素改性及纤维素基材料、造纸化学品的开发和应用、生物技术在造纸工业中应用等。团队先后获得国家科技攻关课题、国家自然科学基金、 863 计划、天津市重点科技攻关课题等研资金助，并且和包括世界500 强企业在内的多家企业有持续合作关系。团队有博士生导师</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:45:42</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851447.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>（专硕）2022年仲恺农业工程学院作物招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>仲恺农业工程学院机电工程学院院长丁力行课题组诚邀有为青年加入导师简介丁力行教授，硕士研究生导师，国家公派留学归国人员，南粤优秀教师，第七批广东省“千百十”工程省级培养对象，现为仲恺农业工程学院机电工程学院院长，并任广东省现代农业绿色标准工程研究中心主任、中药材产地加工分中心(国家中药现代化工程技术研究中心)主任。发表研究论文100余篇，多篇被ei等权威机构收录，已授权40余项专利，已完成包括国家自然科学基金等省部级以上科研项目多项，主持完成的成果获得省级科学技术进步奖，获得全国建筑节能技术创新先进个人称号</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:43:56</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851413.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>西南科技大学环境友好能源材料国家重点实验室的李迎军老师接受调剂生1-2名，研究方向：1. 纳米材料功能化；2.功能高分子材料； 3.聚合物基复合材料。  个人情况如下：  李迎军：男，山西平陆人，博士，讲师，硕士生导师。主要从事功能高分子纳米复合材料的研究工作。通过研究小分子气体在高分子基复合材料中的渗透行为，从分子设计和材料结构出发构筑功能高分子纳米复合材料。近年来，主持或参与国家军品配套项目、国家国防科工局乏燃料后处理科研专项项目、国家自然基金项目、国家重点实验室开放基金、四川省科技项目等10余项；作为第一主</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:43:50</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851410.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2022年浙江农林大学木材科学与技术调剂信息</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>广招有化学基础的学生，08开头机械专硕，食品专硕，生化环材学硕等都可以咨询，我帮自己的导师招生，所以以上专业之后研究的都是与化学相关哦，加我的时候备注一下成绩和专业qq:1549992139关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:40:52</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851389.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022年佳木斯大学佳木斯大学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>赵老师课题组招收2022年计算机专业研究生，研究方向：人工智能、图像处理和模式识别等，学科类别：计算机。请有意调剂考生将个人情况发刘老师邮箱或电话联系，1178689722@qq.com来邮件时注明2022考研调剂，标明报考专业为计算机。联系电话：13846159621。调剂信息： 1.招生类型: 硕士招生、接受调剂; 2.招收学校(单位)名称： 佳木斯大学 3.学校或单位地点：黑龙江省佳木斯市 4.提供的补助待遇：按学校规定发放 5.招收专业：计算机科学与技术(学硕）。 6.招收方向：图像处理、模式识别、机器学习、人工智能等。调剂要求： 1、全日制学硕，英</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:41:44</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851387.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022年天津科技大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>天津科技大学轻工科学与工程学院拥有“轻工技术与工程”（082200）一级学科博士学位授权点，“轻工技术与工程”一级学科博士后科研流动站，“轻工技术与工程”（082200）学术型硕士学位授权点、“材料与化工”（085600）专业型硕士学位授权点，“轻工技术与工程”入选天津市一流建设学科。学院设有轻化工程、包装工程、印刷工程3个本科专业，其中，轻化工程和包装工程专业为国家一流本科专业建设点、国家级特色专业，印刷工程专业为天津市品牌专业、天津市应用型专业。2022年硕士研究生招生意向优先考虑轻化工程、化学工程与技术、环境工程</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:38:28</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851370.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022年河南理工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>河南理工大学是河南省特色骨干高校，具有开展硕博连读资格。材料学院拥有材料科学与工程博士后流动站、一级学科博士点，承担国家重点研发计划、国家自然科学基金重点项目等科研项目。承担多项国家级、省部级项目；以第一作者、通讯作者发表SCI/EI论文60余篇， CMS、JIA、JMMM,JMCC等SCI期刊审稿人。  欢迎相关专业（材料、化学、物理、机械）的考生咨询。   1.初试成绩（单科、总分）符合工科在一类地区的全国初试成绩基本要求。公共课要求考数学1或数学2。   2.咨询专业：1）材料科学与工程，学术硕士；2）材料与化工，专业硕士。专业方向</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:36:24</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851307.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2022年重庆工商大学无机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>置顶！！！☞☞☞☞有明确意向者添加qq991766301沟通）！☞♥♥重庆工商大学化学相关专业（学硕/专硕）有2名调剂名额，需要考英一数二，初试分数需满足国家线方有机会进入复试，切记请有明确意向来参加复试再联系！！！英语过六级且有化学背景的同学优先考虑，有意愿请发简历至lyhctbu@126.com，招生导师个人简介链接：https://iwoc2014.ctbu.edu.cn/info/1091/3072.htm除重庆工商大学对录取的研究生有各种奖学金、补助金，导师还将按照实验进展每月发放300-800元的补助，另发表sci一区论文奖励8000元</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:34:40</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851292.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2022年西安工业大学环境生态、能源化工、理论化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>欢迎化学/化工-材料类、环境/地理/地质类等学科（或有仪器/机械、物理/力学、能源/动力或计算机背景的相关学科）的同学加入西安工程大学能源化工新材料与环境生态过程团队。针对环境、气候干旱化和化石燃料消费面临的碳减排等问题，本团队从化工能源新材料研发、理论化学计算与模拟、生态过程观测与建模等领域入手开展相关研究。近年来，团队成员先后承担4项国家自然科学基金项目、6项省部级项目、7项厅局级项目和6项横向项目，先后在j. am. chem. soc., chem. sci., j. mater. chem. a, j. phys. chem. lett., chinese sci. bull.等国内外</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:33:11</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851267.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2022年福建农林大学农业推广招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>一、导师简况：苏达，男，博士，硕导。2015年毕业于浙江大学，2018年于丹麦哥本哈根大学访学。主要从事作物品质生理及分子调控。参与国家自然基金和福建省自然基金等3项。研究成果先后在Journal of Agricultural and Food Chemistry，Journal of Cereal Science, Plant Growth Regulation，Journal of Plant Physiology，Crop and Pasture Science, Journal of Zhejiang University-Science B, Soil and Tillage Research，Resources, Conservation and Recycling，《作物学报》，《中国农业学报》《中国水稻科学》，《植物营养与肥料学报</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:30:20</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851208.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2022年集美大学机械工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>（1）研究方向：1.机器视觉技术与AI算法应用2.光学精密测量3.关键构件疲劳测试与评价（仅学硕）（2）招生要求1.初试成绩（单科、总分）符合工科在一类地区的《全国初试成绩基本要求》2.考数学一或二，有C++、python等编程语言基础的考生优先3.对研究方向感兴趣，愿意持续学习的考生优先4.接收调剂考生必须通过中国研究生招生信息网调剂系统进行（3）招生人数1.学硕、专硕各1名。（4）联系方式有意向的考生发送邮件到邮箱453037294@qq.com，备注：“姓名+研究方向”，附件简历。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:27:21</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851190.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2022年安徽理工大学化学，化工和材料专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>安徽理工大学清洁能源转化与高效利用学科团队现有教授4人，副教授3人，其中国家级人才1人。主持多项国家基金项目和省部级项目，研究方向为新能源电池，电化学制氢和电化学储能材料，目前尚有部分硕士研究生生名额，希望招收6名对科研比较感兴趣，能吃苦耐劳的硕士生。  调剂要求: 特别欢迎化学，化工和材料专业的学生踊跃报名（其他专业勿扰，谢谢），但单科和总分均需达a类地区国家线，且初试必须考数学（这个条件是必须的）。  团队指导教师如下：  张雷，男，博士，教授，博士生导师，海外留学人员，安徽理工大学清洁能源转化与高效利用</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:25:52</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851097.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2022年山东建筑大学热能工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>导师简介：杨洛鹏，教授，博士，硕士和博士生导师，美国威斯康辛大学-麦迪逊博士后。获德国DAAD大学学者和科学家基金赴德国不莱梅大学和德国FAU-Erlangen大学担任研究员。2007年-2019年在大连理工大学历任硕导和博导，2019年10月起任教于山东建筑大学，主要从事水平管降膜蒸发传热机理和高盐废水余热利用与海水淡化的理论与应用研究。作为获奖人获得了国家能源局国家能源科学技术进步奖一等奖，发表论文60余篇，其中以第1作者或通讯作者发表国际SCI检索期刊论文20篇，JCR 一区论文7篇，授权国家发明专利10项。作为项目主持人连续承担国家自</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:24:39</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851093.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2022年山东建筑大学热能工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>导师简介：杨洛鹏，教授，博士，硕士和博士生导师，美国威斯康辛大学-麦迪逊博士后。获德国DAAD大学学者和科学家基金赴德国不莱梅大学和德国FAU-Erlangen大学担任研究员。2007年-2019年在大连理工大学历任硕导和博导，2019年10月起任教于山东建筑大学，主要从事水平管降膜蒸发传热机理和高盐废水余热利用与海水淡化的理论与应用研究。作为获奖人获得了国家能源局国家能源科学技术进步奖一等奖，发表论文60余篇，其中以第1作者或通讯作者发表国际SCI检索期刊论文20篇，JCR 一区论文7篇，授权国家发明专利10项。作为项目主持人连续承担国家自</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:22:35</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851060.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022年上海海洋大学渔业资源招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>上海海洋大学与山东省海洋资源与环境研究院联培研究生，招生专业：渔业发展（095134，农学专硕）研究方向为地理信息系统与遥感、海岸带规划、海洋生态修复规划、海域海岛开发利用与保护修复研究等，调剂招生人数1-2人。根据调剂政策的有关规定（“调入专业与第一志愿报考专业相同或相近，应在同一学科门类范围内”），要求第一志愿报考专业代码开头为09，有意符合条件的同学将发个人简历发邮箱hyhdyjzx@shandong.cn上海海洋大学2022年硕士研究生招生目录https://yjs.shou.edu.cn/2021/0912/c14263a293453/page.htm相关调剂信息请关注https</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:20:55</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851034.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022年辽宁科技大学应用化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>薛丹副教授，中国化学会会员，主要从事有机/无机复合材料的设计、制备及其在界面、催化和环境治理等方面的应用研究，内容涉及Janus复合材料、氧化石墨烯基复合材料、防腐涂层材料以及纤维素纳米晶基复合材料等复合材料的开发与制备。本人主持国家自然科学基金1项，市级应用研究项目1项；作为主要参与人参与国家自然科学基金重点项目、国家自然科学基金优秀青年科学基金项目、以及国家自然科学基金面上项目等多个科研课题。本课题组研究经费充足，除了有国家自然科学基金、学校高层次人才引进科研启动基金，还有多项与企业合作的横向课题研</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:19:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22851009.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022年阜阳师范大学生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>欢迎报考或调剂阜阳师范学院赵胡老师的研究生赵胡职称： 副教授研究方向：（1）植物次生代谢分子调控（2）果蔬采后衰老生物学（3）植物逆境生物学电话：13030680720 0558-2596148电子信箱：zhaohu8196@sina.com个人简历：教育经历：2009/09—2013/09南京大学，生命科学学院，博士2001/09—2004/07 厦门大学，生命科学学院， 硕士申请人工作经历：2017/11-至今 阜阳师范学院，生物与食品工程学院，副教授2004/09-2017/11 阜阳师范学院，生物与食品工程学院，讲师1997/09-2001/07 安徽淮南矿业集团第五中学， 生物教研组，中学一级教师研究项</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:17:22</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850989.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022年赣南师范大学数学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2022年赣南师范大学数学与计算机科学学院 计算成像课题组调剂数学专业学术硕士。有意愿调剂的将个人详细简历（包含报考学校和初试成绩）发到邮箱：maszniu@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:15:35</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850944.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022年大连海洋大学水产招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>本课题组招收2022年水产、海洋生物相关专业研究生主要研究方向: 贝类分子遗传学、贝类遗传育种。对考生要求：英语四级，勤奋踏实，身心健康。联系方式：397193382@qq.com。欢迎想要从事贝类遗传育种、分子遗传学等方面研究的研究生报考。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:13:31</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850889.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022年昆明大学材料与化工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>昆明化工学院已有43年办学历史，现有化学（省一流）、化学工程与工艺、安全工程三个本科专业和“材料与化工”专业学位硕士授权点。拥有现有云南省塑料薄膜制品工程技术研究中心、云南省高校食品安全检测技术重点实验室、云南省高校绿色有机资源化学科技创新团队、云南省高校新型能量转换与存储材料科技创新团队等省厅级科研平台和创新团队等多个创新平台，教职工47人（博士36人）。在读本科生768人，研究生20人。2022年预计招生50人，可以大量接收调剂生。四季如春，美丽昆明欢迎你们的到来。联系方式: qq:3175993181；关注公众号：51考研</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:11:37</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850880.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022年江西师范大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>朱美华，女，工学博士，副教授，1985年8月出生，江西景德镇人。 2013年3月获日本山口大学工学博士学位，同年6月到江西师范大学工作。博士在读期间师从在膜分离领域国际名师Hidetoshi Kita教授，从事分子筛膜的合成、渗透气化分离和气体分离研究。目前以第一作者或通讯作者已在J. Membr. Sci., Micropor. Mesopor. Mater., Ind. Eng. Chem. Res., Sep. Purif. Technol., Chem. Lett., Membranes., 膜科学与技术等化学和材料领域的主流期刊上发表论文二十余篇，申请中国发明专利9项，已授权6项。2021拟招收材料科学工程专业学术硕士生2-3名，</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:09:53</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850861.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022年齐鲁工业大学分析化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1. 考生要求：化学、化学工程相关专业；需达到国家2022年复试（A类考生）最低控制线要求；调剂系统开放前，需调剂的考生，可提前联系。2. 研究方向生物和化学传感；药物合成与筛选；微流控芯片研发；荧光探针、COFs材料的合成与传感应用3. 联系方式联系人：胡老师。邮箱：huqz@qlu.edu.cn。邮件中请注明初试成绩、科目、毕业院校专业、联系方式等相关情况。导师介绍：胡琼政，齐鲁工业大学（山东省科学院）山东省分析测试中心教授、研究员，生物传感和药物分析团队的课题组组长，高层次人才回国资助计划人选、山东省泰山学者青年专家、山东</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:08:20</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850843.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022年中国石油大学（华东）矿物学、岩石学、矿床学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>本人生于长庆油田，本硕博求学于中国石油大学（华东），博士在美国联合培养两年后留校工作。目前，研究项目充足，主要集中在渤海湾盆地，四川盆地和鄂尔多斯等盆地，研究方向为（1）层序地层学与沉积学；（2）细粒沉积与页岩油气；（3）湖相碳酸盐岩储层地质学。待遇优厚，欢迎各位同学来信来电咨询和报考，个人网址http://geori.upc.edu.cn/2018/0526/c10381a152107/page.htm。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:06:50</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850817.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2022年中北大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>课题组招生，可跨专业招生，化工，材料，环境工程，生物工程，制药工程等相近专业均可，考数二，有意者进群，838588257，进群注明学校，姓名，本科导师，联系方式，专业等关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:05:36</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850793.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2022年北京信息科技大学机械制造及其自动化招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>调剂要求：1）单科及总成绩通过A类国家线；2）机械类，机电类，控制类，电子信息类；3）统考课程需考数学。0802机械工程（学术学位）01机电系统智能感知与控制02机器人技术03智能制造04智能机械装备设计05智能与新能源汽车技术0855机械类（专业学位）01智能测控技术02机器人与智能控制03智能制造与装备04智能机械装备设计与控制05智能网联新能源汽车技术06智能化协同制造技术与应用（“人工智能+”改革）学校简介：北京信息科技大学地处中关村核心区，是北京市属高校中信息类学科专业最为齐全的高校，致力于培养 IT 行业高端人才和信息技术</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2022-02-22 15:01:24</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850733.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2022年东北石油大学土木工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2022东北石油大学土木工程、土木水利专业调剂咨询，有意者请联系！！！1、本科专业为于土木工程、城市地下空间工程，道路桥梁与渡河工程、力学等相关本科专业，非相关本科专业考生请勿打扰。2、第一志愿报考专业相近（仅限08工学），但均需有数学一或数学二成绩。===============================东北石油大学土木工程专业硕士招生目标生源本科专业：1、土木工程（学硕：结构工程、防灾减灾工程及防护工程、桥梁与隧道工程方向）：目标生源本科毕业专业为土木工程，城市地下空间工程，道路桥梁与渡河工程、力学等2、土木水利（专硕：结构工</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:58:29</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850680.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2022年华南农业大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>华南农业大学珠江学者团队拟调剂化学工程学硕1名，要求初试报考07相关的化学工程、制药工程、材料工程、食品工程等相关专业，必须考数学。联系方式QQ42911097关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:58:41</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850668.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2022年五邑大学化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>招收材料与化工 专业硕士 3名！！！（需要考数学二哦）（1）导师简介   李滨，教授，五邑大学生物科技与大健康学院（广东省高水平理工科大学，广东省江门市），法国雷恩第一大学博士、访问学者。2015年入选 广东省高校优秀青年教师培养计划，2018年入选广东省高校优秀青年科研人才国际培养计划。多年来一直从事过渡金属催化合成医药中间体、精细化工中间体、功能有机硅等化合物的研究。近五年主持各类科研项目10余项，其中包括主持国家自然科学基金1项、省部级项目3项、市厅级项目3项、企业委托项目4项等，并且担任国际著名期刊chem. comm</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:57:14</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850639.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2022年沈阳工业大学化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>沈阳工业大学石油化工学院离子液体催化剂课题组招收的学术型研究生学科专业包括化学工艺、化学工程、新材料合成与应用技术3个专业和专业型研究生学科专业包括化学工程1个专业；招收的化学工程专业型研究生包括全日制。石油化工学院化学工程与技术一级学科硕士学位授权点水平在全国40%、历年在学研究生成果丰硕。  目前课题组在研国家自然基金2项，省级课题4项，横向课题5项，在研总进款500左右，团队指导教师5人，硕士生10人，课题组有两个大方向，1、离子液体催化剂合成  2、可降解聚合物合成 3、二氧化碳的高附加值的开发与利用 ，希望有</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:55:32</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850591.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2022年 齐鲁工业大学皮革化学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>招生类型：硕士接收调剂招收学校：齐鲁工业大学-轻工学部学制及专业：三年硕士，皮革化学与工程方向学校地点：山东省济南市收费及补助待遇：  1.学费标准  我校全日制硕士研究生（含学术学位和专业学位）收费标准为每生每年6000元，非全日制硕士研究生收费标准为每生每年7000元。  2.全日制助学金  助学金包括国家助学金和普通助学金，其中国家助学金6000元/人/年，普通助学金3000元/人/年，均按月发放，发放范围覆盖研究生招生计划内的所有全日制研究生(有固定工资收入的除外)。  3.全日制奖学金及科研补贴  奖学金分为国家奖学金、学业奖</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:52:26</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850563.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2022年河北工程大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>河北省改性塑料技术创新中心是隶属于河北工程大学材料学院的省级研发平台。团队情况：团队主要致力于先进高分子材料，功能薄膜材料，吸附材料、新能源材料等材料的设计、研发及应用。团队目前共承担国家自然科学基项目5项，青年省级、市厅级、横向课题20余项，发表SCI论文全校名列前茅。   招收老师：1、中心副主任王彦明，男，博士，副教授。2015年毕业于中科院兰州化学物理研究所。目前主持国家基金青年项目1项、中央支持地方科技发展项目1项，河北省青年基金项目1项，横向课题2项，邯郸市重点研发项目1项，邯郸市科技支撑计划项目1项，</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:51:07</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850493.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2022年济南大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>济南大学岳云龙教授课题组招收研究生功能玻璃及特种玻纤研究实验室以岳云龙教授为首，团队成员包括教授1名，高级工程师1名，博士后1名，博士2名，能够全程参与研究生课题指导，随时解决学生遇到的难题。目前实验室招收研究生6名。欢迎化学、材料、物理等专业的同学报考或调剂，加入我们团队，学有所成，让自己有一个更光明的未来！学校接受调剂。具体情况请联系陈老师电话：18963510182邮箱：1343900651@qq.com地址：山东省济南市市中区济南大学西校区材料学院5教401室岳云龙教授简介：岳云龙教授，博士生导师，济南大学材料科学与工程学院</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:49:38</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850462.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2022年大连海事大学船舶与海洋工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>大连海事大学水下机器人海洋微纳能源利用团队，现拟招收4-5名调剂硕士研究生。请认真阅读下面的信息：大连海事大学是交通部所属唯一高校，211工程院校，国家“双一流”学科高校。团队所在学科为国家“双一流”建设学科，小团队研究方向主要是水下机器人、水下智能传感、薄膜能源新材料、海洋生物能、船舶余热利用技术。研究内容主要包括：1）水下智能触觉传感识别；2）基于TEG和TENG的复合能量采集与自供能传感技术；3）先进柔性“智能皮肤”新材料；4）船舶余热TEG-ORC联合循环梯级利用；课题组研究氛围好，基础雄厚、具有完备的电子沉积</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:46:55</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850444.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2022年云南师范大学能源与环境科学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>云南师范大学 能源与环境科学学院（太阳能研究所） 艾尔肯·阿不都瓦衣提 研究员课题组招收研究生课题组主要研究方向有：三五族太阳电池，太阳电池模拟仿真，钙钛矿太阳电池，每个方向均有老师带队。招生/调剂要求：本科阶段有半导体物理、固体物理基础，英语水平4/6级。优势①：导师为云南师范大学海外高层次人才引进计划专家；优势②：课题组经费充足，独有超净间和部分高端仪器设备，组内氛围融洽，劳务费充足；优势③：导师人脉/资源雄厚，读博或者工作均可以推荐。欢迎材料、物理、能源等相关专业有理想有志向的优秀学生加入！wechat</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:47:28</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850443.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2022年安徽师范大学动物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1、要求对两栖动物感兴趣，吃苦耐劳，责任心强，工作踏实，态度严谨。2、英语至少通过四级。3、具备野外调查和采集能力背景者优先考虑。考生将个人信息（个人简历、考研成绩以及第一志愿报考院校及专业、本科成绩、英语成绩单等能证明个人能力的相关资料）发送至邮箱联系方式: chenjinminkiz@126.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:44:53</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850412.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2022年 齐鲁工业大学生物基材料国家重点实验室应用化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>齐鲁工业大学（山东省科学院）生物基材料与绿色造纸国家重点实验室 导师招生研究生3名（专硕、学硕均可）。导师研究方向介绍（1）  新型有机光电功能材料研究，通过分子设计、探索新的有机合成方法，制备高性能光功能材料，并通过组成、结构和性能关系的系统研究为新型有机分子设计提供理论依据。（2）  荧光染料及荧光探针的性质研究，利用有机合成方法学结合多种方式的协同，合成以有机金属配合物、有机小分子等为基础的荧光染料，探索染料的性质及在生物领域的应用。（3）  有机光功能材料的生物应用研究，制备具有生物特异性的有机功能</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:44:52</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850379.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2022年 黑龙江大学信息与通信工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>黑龙江大学电子工程学院王国涛副教授课题组招收2022级硕士研究生（含一志愿和调剂考生），课题组具体名称为：多余物自动检测技术课题组（隶属于哈尔滨工业大学电器与电子可靠性研究所）。2022年，课题组拟招收信息与通信工程专业学生2名，电子信息（电子与通信工程）专业学生4-5名。其中，拟接收调剂信息与通信工程专业学生1-2名，电子信息（电子与通信工程或控制工程）专业学生1-2名。其基本信息如下：（1）信息与通信工程专业及电子信息（含电子与通信工程、控制工程）专业的学制均为3年；（电子与通信工程专业在2021级正式更改为电子信</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:43:13</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850335.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料物理与化学、物理学-招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1.实验室简介：青岛大学物理科学学院功能薄膜实验室致力于探索薄膜异质结构微结构参数与多种物理特性之间的作用关系，借助于脉冲激光沉积、原子力显微镜等先进薄膜制备技术，基于晶格自由度与电有序，磁有序的耦合，发展在信息存储，光电功能转化等领域具有应用前景的新结构，新材料，以及基于此的原型器件。实验室现有脉冲激光沉积系统2套，原子力显微镜（含pfm，efm，skpfm，mfm等，ar 3d系统）1套，各种数字源表、电学测试设备等共计500万规模。2.实验室负责人简介：温峥，毕业于南京大学材料科学与工程系。现为青岛大学物理科学学院教</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:41:37</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850320.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2022年 沈阳化工大学机械与动力工程学院招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>沈阳化工大学机械与动力工程学院唐黎明副教授现有2022年硕士研究生招生名额，诚邀致力于科研工作的学生加入。实验室具有良好的学习氛围，设备齐全、经费充足，可为学习深造及科学研究提供可靠保证。主要研究方向：（1）聚合物基纳米复合材料/钢配副的摩擦学特性与分子动力学研究；（2）化工机械的摩擦磨损与润滑；导师介绍：唐黎明，副教授，工学博士，高级实验师，辽宁省一流本科课程，模拟仿真实验教学一流课程负责人，现有科研金额：10万元，第一作者身份发表论文30余篇，其中多篇被EI、ISTP 收录，授权专利7项。招生要求：（1）考研总</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:39:04</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850281.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2022年集美大学机械电子工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>黄衍，男，博士，硕士生导师，2020年西南交通大学牵引动力国家重点实验室博士毕业，2020年9月任职于集美大学海洋装备与机械工程学院。现致力于海洋可再生能源装备、海上货运装备的信号检测与控制理论研究。在journal of sound and vibration、measurement、shock and vibration等sci索引期刊发表过学术论文并担任审稿人。一、研究方向：1.海洋装备非线性信号处理理论；2. 海洋可再生能源装备控制及应用理论；3. 基于深度学习的信号预测技术研究。2）招生要求1.初试成绩（单科、总分）符合工科在一类地区的《全国初试成绩基本要求》2.考数学</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:38:37</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850265.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年广西大学化学工程与技术、材料与化工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>不是化院的专业不了解！教育部要求2022年研究生招录工作将在5月底前，全部完成！  2021年化院研究生招生计划中，化学学硕102人、化工学硕110人、材料与化工（专硕）150人，当年学校上线人数，化学29人，化工26人，化工专硕6人，各专业调剂名额为70-140人不等。  2020年化院研究生招生计划中，化学、化工和材料与化工（专硕）总计录取352人，一志愿43人，调剂名额300余人，平均各专业调剂名额100人左右。  2019年化院研究生招生计划中，化学、化工和材料与化工（专硕）总计录取244人，一志愿38人，调剂名额200余人，平均各专业调剂名额为70</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:37:55</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850262.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2022年青岛科技大学材料科学与工程、电气工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>平台优势与保障条件：院士团队、省级高电压与绝缘技术青年创新团队、青岛市工程研究中心、产教融合研究生联合培养示范基地。研究方向：多学科交叉融合一、电气工程专业（1）高电压与绝缘技术（2）输变电设备在线监测、故障诊断与状态评估（3）多物理场耦合下电力设备电磁场仿真二、材料专业（1） 电力设备绝缘材料与绝缘技术（2） 新型电工绝缘材料设计（3） 高压电缆及附件系统核心材料研究及应用欢迎对电气与材料交叉学科感兴趣的同学报考！联系方式：杨老师17897573120@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:37:31</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850256.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2022年广西大学化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>不是化院的专业不了解！教育部要求2022年研究生招录工作将在5月底前，全部完成！  2021年化院研究生招生计划中，化学学硕102人、化工学硕110人、材料与化工（专硕）150人，当年学校上线人数，化学29人，化工26人，化工专硕6人，各专业调剂名额为70-140人不等。  2020年化院研究生招生计划中，化学、化工和材料与化工（专硕）总计录取352人，一志愿43人，调剂名额300余人，平均各专业调剂名额100人左右。  2019年化院研究生招生计划中，化学、化工和材料与化工（专硕）总计录取244人，一志愿38人，调剂名额200余人，平均各专业调剂名额为70</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:36:41</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850247.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2022年湖北工业大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>湖北工业大学材料与化学工程学院“高分子材料绿色改性与助剂研究”团队简介：一、团队负责人简介陈绪煌，教授，博士生导师，南湖学者特聘教授。中国塑料加工工业协会专家，湖北工业大学高分子材料绿色改性与助剂研究所所长。主持军工、省部级及横向合作项目共30多项。获批航空航天“十二五”重大科技专项，获批科技部中小企业创新基金、住建部项目多项。团队目前有教授1人，副教授1人，讲师2人。团队长期从事导电复合材料、功能高分子材料、聚合物发泡等方面的理论和应用研究。二、重点研究方向（不限于）1. 导电复合材料1) 高压高电流ppt</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:35:40</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850217.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022年 辽宁工程技术大学力学、水利工程、土木工程、矿业工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2022年课题组拟招收 力学学硕 采矿工程学硕 矿业工程专硕 调剂生若干名，调剂条件如下（均应满足）：[1]第一志愿报考a区高校，且小分和总分均过报考第一志愿的a区国家基本线，调剂考生初始需考英语和数学；[2]本科为力学、采矿、地质、土木、水利水电、安全、环境、数学等理工科专业，学过理论力学、材料力学或工程力学等基本力学知识，混学历者请绕行；[3]对如下某个或某几个研究方向感兴趣：  1）岩土/岩体工程  主要从事大型岩土边坡工程或地下岩体工程稳定性研究  研究方法：实验+理论 或 数值模拟+理论  2）矿山灾害防治   主要从事矿</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:35:15</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850208.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2022年北京石油化工学院 化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>北京石油化工学院，新材料与化工学院，接收调剂！导师介绍：谷庆阳，副教授，硕士研究生导师，新材料与化工学院 基础化学教学与实验中心副系主任，属于界面调控传质与高效催化反应技术北京市高水平创新团队、燃料清洁化及高效催化减排技术北京市重点实验室。长期从事有机/无机复合材料的设计、制备及性能研究工作。先后主持国家自然科学基金、北京市自然科学基金、北京市属高校青年拔尖人才培育计划、北京市教委科技一般项目、北京市优秀人才培养资助等项目。发表SCI论文多篇，发明专利多项。详情请查看：http://www.bipt.edu.cn//pub//gr</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:34:04</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850199.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2022年浙江理工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>有意者直接联系邮箱：zhangming@zstu.edu.cn要求：1.学习态度端正，认真努力，好相处2.英语较好浙江理工大学张明副教授招收2-3人研究生，方向：功能纳米纤维，电化学能源方向目前学校调剂系统开启时间还未确定要求：本科为材料相关专业，初试达到a区分数线，考数学学校: 浙江理工大学专业: 工学-材料科学与工程-功能纳米纤维实验室年级: 2022招生人数: 2-3联系方式: 邮箱：zhangming@zstu.edu.cn课题组主页：http://mat.zstu.edu.cn/szdw/ktzlb/zm.htm导师介绍：张明，女，1978年1月出生，博士，讲师，硕士生导师。2005年6月在吉林大学化学</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:33:08</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850191.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2022年西南科技大学高分子及复合材料招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>杨文彬教授接受调剂生3-5名，研究方向：1.相变节能复合材料；2.功能高分子材料；3.聚合物基复合材料；4.纳米复合材料.研究经费和研究条件有充分保障，目前已发表论文80余篇，欢迎各位同学调剂到我校！欢迎访问个人主页了解详细情况：http://www.clxy.swust.edu.cn/con ... 932ad006af69ca1abb0联系电话：13628119297电子邮件：875427726@qq.com2021年年接收研究生专业：材料科学与工程、材料工程、应用化学、化学工程与技术、化学研究生福利及待遇：(1)学校补助:国家助学金6000元/年+学校助学金5000元/年(这两项每人都有，共计11000元)+研</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:32:20</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850183.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2022年集美大学电力电子与电力传动招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>研究方向：船舶与海洋平台交直流微网系统与控制，侧重电力电子功率变换器控制、系统稳定性研究等。有意向请发个人简历与未来研究设想 wgl@jmu.edu.cn学校学科相关信息参看微信公众号：不息的蓝色引擎关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:31:59</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850181.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2022年桂林理工大学材料学院光电材料与器件团队材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>团队成员10人，教授4人，副教授2人，博士4人。教育部“新世纪优秀人才支持计划”1人，广西新世纪“十百千人才工程”第二层次人选2人，广西自然科学基金杰出青年基金1人。团队主要开展化合物半导体材料、光伏器件等领域的科学研究，一直倡导将前沿性基础研究成果与国民经济发展和国家重大需求紧密相连。团队入选广西自然科学基金创新研究团队和广西第四批特聘专家团队，近三年来承担国家自然科学基金5项，广西科技计划项目5项，到位研究经费516万元。相关研究成果在ACS Appl. Mater. Interfaces、Materials  Design、RSC Advances、Electro</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:30:58</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850173.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2022年桂林理工大学材料学院光电材料与器件团队材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>团队成员10人，教授4人，副教授2人，博士4人。教育部“新世纪优秀人才支持计划”1人，广西新世纪“十百千人才工程”第二层次人选2人，广西自然科学基金杰出青年基金1人。团队主要开展化合物半导体材料、光伏器件等领域的科学研究，一直倡导将前沿性基础研究成果与国民经济发展和国家重大需求紧密相连。团队入选广西自然科学基金创新研究团队和广西第四批特聘专家团队，近三年来承担国家自然科学基金5项，广西科技计划项目5项，到位研究经费516万元。相关研究成果在ACS Appl. Mater. Interfaces、Materials  Design、RSC Advances、Electro</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:30:58</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850173.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年安徽工业大学冶金工程、材料科学与工程、环境工程、化学工程、材料与化工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>安徽工业大学冶金减排与资源综合利用教育部重点实验室接收调剂生，专业：冶金工程、材料科学与工程、环境工程、化学工程、材料与化工请大家将姓名、手机号、本科院校与专业、四六级分数、报考学校与专业、专硕还是学硕、总分、报考科目与分数发至42962778@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:30:05</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850165.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2022年 新疆大学热能工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>我们老师是年轻导师，人贼好。希望你是热能工程相关工科专业联系方式: jianli2246@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:28:44</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850155.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2022年扬州大学有机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>扬州大学化学化工学院郭帆老师团队招收化学相关专业调剂生3名招生专业：化学学硕、化学专硕研究方向：围绕近两年最受关注的前沿课题—“碳达峰 碳中和”做相关研究，从事配位化学、材料化学和催化能源的交叉工作，重点探索基于金属有机框架（MOFs）纳米材料的形貌设计（如晶面，尺寸等）与光催化还原二氧化碳的研究。团队一直与与南京大学、中国科学技术大学、国立台湾大学及美国马凯特大学保持合作，可提供本项目所需要的先进表征技术，如原位技术（如同步辐射、X射线衍射、拉曼、红外等）测试、瞬态光谱分析等。科研情况：郭帆老师博士毕</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:28:58</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850154.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2022年浙江师范大学生物学方向招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>本实验室招收硕士研究生2名。欢迎对生化与分子生物学、细胞生物学、基础医学等方向感兴趣并有一定研究基础的同学报考或调剂。导师及实验室信息如下。有意向的同学请联系导师（同时附上个人简历）。导师e-mail地址：tjzhao@zjnu.cn导师：男，医学博士（海归），教授，博士生导师。以第一作者或通讯作者发表包括PNAS，Blood在内多篇影响因子大于10的SCI论文。主持多项国家自然科学基金项目，实验室经费充裕。主要研究肿瘤发生分子机制及抗肿瘤药物的开发。实验室主页：http://sky.zjnu.edu.cn/2014/0127/c4853a85491/page.htm实验室：现有硕</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:28:14</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850147.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2022年长江大学油气田开发工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>长江大学非常规压裂增产技术团队招收工科调剂长江大学非常规压裂增产技术团队依托长江大学和湖北省非常规油气协同创新中心，着力发展非常规油气藏的增产改造技术。团队共有19人，其中教授1名，副教授2名，讲师1名，在读研究生15名，团队带头人王老师曾是中石化油田企业学术带头人，现长江大学石油工程学院正高级研究员，主要研究方向，非常规油藏增产、提高采收率技术长期致力于非常规油气藏采油气工程技术领域的研究和实践，期间承担国家重大专项、973、863等国家项目6项，省部级项目6项，获省部级科技奖励10次,授权专利20项。团队技术负</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:27:58</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850113.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2022年机械工程学院 表面工程与固体润滑技术课题组机械工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>本课题组依托于燕山大学极端条件下机械结构和材料科学国防重点学科实验室、自润滑关节轴承共性技术航空科技重点实验室等，主要研究航空机械零部件的表面改性及固体润滑技术，近年来承担多项国家级、省部级基础研究项目与军工航空科研项目。课题组老师拥有丰富的海外经历和研究经验，在国际著名期刊发表学术论文30余篇。现招收机械设计及理论专业硕士调剂生4名，投递简历同学需满足以下条件：（1）考生初试报考专业代码的前四位应为0802（学硕）或0855（专硕），初试统考科目为数一和英一；（2）考研英语成绩55分以上（或者通过六级），总分</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:27:21</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850109.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2022年桂林电子科技大学材料科学与工程-招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>见官网关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:26:24</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850102.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2022年南昌大学物理化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>南昌大学叶闰平特聘教授（http://chem.ncu.edu.cn/xygk/szdw ... c83f9718ef28879.htm）所在团队招收2名化学化工类研究生。叶博士长期致力于多相催化加氢催化剂的研发及其产业化研究，努力为C1资源化利用提供关键催化材料。主持了国家自然科学基金青年基金和中国博士后基金特别资助等项目，入选了中科院特别研究助理资助（中科院人才培养项目）、中科院大连化学物理研究所优秀博士后资助和南昌大学高层次人才资助。已发表SCI论文30余篇，其中以第一作者或通讯作者在Nat. Commun.（ESI热点论文，入选化学材料TOP50论文），ACS Catal. (2篇)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:25:21</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850099.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2022年重庆工商大学化学工程、环境科学专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>欢迎应化、化工、材料、环境等本科专业的同学！需考数学！具备有机化学研究背景的同学优先！需要考数二，初试分数需满足国家线方有机会进入复试！有意的同学请将简历及考试成绩等信息发41654346@qq.com。导师介绍：http://muchong.com/t-11886558-1重庆工商大学位于中国直辖市重庆，由中央和地方共建，重庆市人民政府举办，重庆市教育委员会主管，入选“中西部高校基础能力建设工程（小211）”，重庆工商大学始创于1952年，由原渝州大学和原重庆商学院于2002年1月18日合并组建而成。重庆工商大学环境与资源学院拥有催化与环境新材料重庆市</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:25:29</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850097.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2022年烟台大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>导师介绍：  康利涛，中科院工学博士，烟台大学环境与材料学院副教授、学科带头人、硕士研究生导师，主要从事场致变色器件、储能器件与建筑节能相关研究工作，在Advanced Energy Materials, Energy  Environmental Science, Nano Energy, Solar RRL, ACS Applied Materials  Interfaces等国内外权威学术期刊发表SCI论文60余篇，担任20余个学术杂志审稿人或仲裁审稿人，获国家发明专利授权10余项，荣获省科学技术二等奖、省高等学校科技进步奖自然科学类一等奖、中国无机材料测试与评价年会学术交流一等奖等多项科研奖励，研究工作被包括Na</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:24:27</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850091.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2022年 黑龙江大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>黑龙江大学，材料科学与工程专业招收学硕调剂考生2名。要求材料与化学相关专业考生，国家统考数二，总分，数学、英语和政治过国家线。李强，男，43岁，教授。获得教育部新世纪优秀人才支持计划及黑龙江省杰出青年基金。从事氧化物燃料电池新型电极材料的电催化性能及氧还原反应动力学研究工作。目前主持并完成国家自然科学基金6项、教育部新世纪优秀人才支持计划、黑龙江省杰出青年等10余项科研项目。已在journal of materials chemistry a、acs sustainable chem. eng.、electrochemistry communications、journal of power sources、ele</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:24:11</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850089.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2022年东北石油大学地球探测与信息技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>一，东北石油大学简介东北石油大学（原名东北石油学院、大庆石油学院）位于黑龙江省大庆市，创建于1960年，1978年被确定为88所全国重点大学之一。学校是黑龙江省与中国石油天然气集团公司、中国石油化工集团公司、中国海洋石油总公司共建高校，是黑龙江省重点建设的高水平大学。二、 课题组简介东北石油大学非常规油气研究院地球物理中心具备雄厚的科研实力，与中国石油、中国石化及中国海油各大公司均建立了长期合作关系，研究团队共包括教授及科研教师6名。中心能够开展岩石物理实验和测井资料评价的研究工作。目前，已在湖相页岩油研究</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:23:12</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850080.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2022年中国地质大学（武汉）资源学院化学化工高分子材料等招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>王教授, 博士生导师，博士毕业于美国宾夕法尼亚州立大学-帕克分校(the pennsylvania state university-university park)材料工程系高分子专业，博士毕业后工作于密苏里大学石油工程系，于2020年9月入职中国地质大学（武汉）资源学院，去年因为学院学校政策各种原因，未能在资源学院招生，现为材化学院兼职导师，可以从材料化学招生，研究兴趣主要介于高分子、水凝胶用于能源领域的功能材料。近年来，在chemistry of materials、spe j. 、chem. eng. j 等国内外知名石油、化工、能源期刊上发表论文15篇。因开展工作需要每年拟招硕士2-3名，</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:22:57</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850078.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2022年广西大学动物遗传育种与繁殖招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>广西大学、广西生猪产业创业创新团队首席专家--兰干球教授团队接受畜牧学硕士调剂生导师介绍：  兰干球，男，广西大学动物科学技术学院教授、博士生导师、国家现代农业产业技术体系广西生猪产业创业创新团队首席专家。2001年获马来西亚国立博特拉大学博士学位，1988年于南京农业大学硕士毕业后进入广西大学动物科学技术学院从事教学科研工作，主要负责猪遗传育种、功能基因组学、地方猪品种资源研究、广西巴马小型猪培育、转基因猪生产、肠道微生物功能研究等工作，在动物分子遗传、畜禽营养与饲料科学方面开展了大量研究工作。博士论文研</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:18:54</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850061.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2022年湘潭大学动力工程及工程热物理招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>湘潭大学动力工程及工程热物理能源动力学科接收调剂生本课题组2021年有硕士研究生招生指标3人，主要研究方向：（1）中低品位热能高效转换与利用；（2）新型热力循环的构建与性能优化；（3）热工过程数值仿真与参数优化；（4）两相流动及沸腾传热特性。热忱欢迎满足条件的同学申报本课题组的硕士研究生，有诚意的同学可发基本情况（含个人简历、本科学校及专业、本科成绩单、报考学校及学科、初试成绩单）到以下邮箱：9998024@qq.com， 进行咨询交流和双向选择，非诚勿扰！附：1、导师主页（1）https://gmsadm.xtu.edu.cn/dsxxgl ... F-BC2</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:20:47</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850054.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2022年安徽师范大学生命科学学院生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>导师简介：王 旭, 女，安徽师范大学，生命科学学院，特聘副教授。以第一作者或通讯作者发表SCI论文14篇，国内核心论文2篇，参与编写专著4本；主持国家自然科学基金1项、主持安徽省自然科学基金1项、主持安徽师范大学博士科研启动金项目1项、主持生科院科研平台专项基金项目1项，经费充足。研究领域涉及昆虫分类学、形态学、分子系统发育和分子系统地理研究。目前主要研究类群是膜翅目寄生蜂和鳞翅目天蛾科昆虫。安徽师范大学生命科学学院建有“重要生物资源的保护和利用研究”安徽省重点实验室和安徽省高校“生物环境与生态安全”省级重点</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:20:00</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850046.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2022年三峡大学物理学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>各位考生，三峡大学物理系许鹏老师课题组招收两名硕士生，研究方向为（1）光伏，光电等半导体材料的理论性质计算；（2）各类新能源材料的发现和设计：高通量筛选及机器学习方法。条件如下：（1）本科成绩良好，吃苦耐劳；（2）报考方向为物理学，本科应学过固体物理，如计算机基础扎实且有编程经验者，可优先且放宽要求；本课题组研究基础厚实，进组研究生将得到重点培养，欢迎有意者邮箱联系，并发送简历和本科成绩单。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:19:09</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850037.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2022年安徽医科大学肿瘤学方向细胞生物学、生物化学与分子生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>安徽医科大学李宗伟教授课题组2022年拟招收硕士调剂生3名。李宗伟教授博士毕业于北京协和医学院，曾在美国University of North Carolina at Chapel Hill、UT MD Anderson Cancer Center和Weill Cornell Medical College Houston Methodist Hospital从事研究工作多年，发表SCI论文30余篇，其中第一作者或通讯作者16篇，包括Cell Metabolism一篇（IF=27.287）。李宗伟教授于2021年11月入职安徽医科大学，聘为教授，博士生导师。目前实验室的主要研究方向为肿瘤代谢与微环境调控，结合基础细胞分子生物学和转化医学研究手段，解决肿瘤研究领域</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:18:14</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850027.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年太原科技大学石国亮老师课题组学化工、能源、生物、制药、材料、环境、过程装备与控制工程等相关专业招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1、导师介绍：石国亮，副教授，工学博士，硕士生导师，山西省新材料专家成员、山西省化工行业协会专家、山西省金属学会专家、中国化工学会会员、山西省化工学会会员、担任Chemical Physics Letters国际知名期刊审稿专家。发表学术论文30余篇，其中SCI/EI收录10篇，授权国家发明专利6项，主持或参与国家自然科学基金2项、省基金2项、国家重点实验室基金1项、省重点实验室基金1项、校博士科研基金1项。主持或参与“十一五”国家教研项目1项、省级教研项目2项、校级教研项目1项。指导大学生参加全国化工设计竞赛和全国化工实验大赛，获国家奖</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:17:10</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850018.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2022年青岛大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1.招生类型：硕士招生2.招收学校名称：青岛大学材料科学与工程学院3.学制以及何种专业：三年制硕士，材料或化学方向4.学校或单位地点：山东青岛5.提供的补助待遇：按学校规定发放6.导师介绍张小艳 苏州大学博士，硕士生导师。主要研究方向是富勒烯功能材料的设计与应用研究。在Angew. Chem. Int. Ed. ，Chem. Commun. ，Macromolecules 等期刊上发表多篇学术论文，主持国家青年科学基金、省自然科学基金以及博士后基金等项目。7.联系方式：zhangxiaoyan@qdu.edu.cn8.招收考生要求：硕士2名材料、化学、化工类的工科考生,初试科目中必须包含</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:16:17</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22850017.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2022年江苏师范大学有机化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>姚昌盛，江苏师范大学教授。2002/09 - 2005/06，南开大学，元素有机化学国家重点实验室，理学博士，1995/09 - 1998/06，苏州大学，化学化工学院，研究生，理学硕士，1991/09 - 1995/06，徐州师范学院，化学系，大学本科，理学学士。2012/11 - 2013/11，美国加州大学戴维斯分校(University of California, Davis)，化学系，访问学者，从事计算有机化学研究，导师：Dean J. Tantillo 教授2008/09 - 2009/06，北京大学，分子与工程学院，访问学者，从事计算有机化学研究，导师：余志祥教授2013/08 - 至今, 江苏师范大学，化学化工学院，教授2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:13:16</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849997.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2022年湖北大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>主要借助理论计算和分子模拟工具，结合具体实验，围绕锂金属二次电池和锌离子电池开展科研工作，主要工作介绍如下：研究方向一：锂金属二次电池理论计算与实验研究：研究方向二：锌离子电池理论计算与实验研究：代表性成果：1. Caoyu Wang, Chunpeng Yang,* and Zijian Zheng*，Toward Practical High-Energy and High-Power LithiumBattery Anodes: Present and Future，Adv. Sci., 2022, 2105213. (IF=16.806, JCR一区)2. Zi-Jian Zheng, Huan Ye,* and Zai-Ping Guo*. Recent Progress on Pristine Metal/Covalent-Organic Frameworks</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:13:21</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849996.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>（专硕+学硕）2022年长江大学作物栽培学与耕作学、作物、农业资源利用招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>长江大学与湖北省农业科学院粮作所联合培养。可以报考或调剂的专业包括：农学，农业资源与环境，生物科学。一、调剂调剂1.为人踏实，勤奋好学，积极上进，动手能力强；2.申请调剂专业与第一志愿报考专业相同或相近；3.分数线过国家分数线，满足长江大学有关调剂要求。二、就读奖助政策1.在长江大学就读文化课，毕业试验在位于武汉市武昌区的省农科院进行；2. 国家助学金。凡录取的国家计划内全日制硕士研究生（定向就业除外）均享受“国家助学金”，资助标准为每生每年6000元。3、国家奖学金。国家奖学金每年评选一次，标准为硕士研究生每</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:12:09</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849991.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2022年上海海洋大学食品科学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>招收生物与医药 食品工程专业联合培养硕士研究生1名，1年在上海校本部学习，2年在研究院（在烟台）完成论文。生活环境好，奖学金优厚，实验室团队软硬件优良。具体要求：报考专业为食品相关专业（08开头），考数学，分数尽量高（高于325）。谢谢大家的支持，但还是得再提醒一下大家，报考研究生的专业一定是食品方向的，再就是初试成绩要高于325，否则无法保证取得面试资格联系人：张老师，zjsd408@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:11:52</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849981.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2022年江苏大学物理化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>招收单位：江苏大学 能源研究院研究方向: 金属离子电池材料硕士生招生对象:1.第一志愿报考我校能源研究院的学生2.调剂到我校能源研究院的学生（去年调剂学生320分以上成功率高，要求有数学成绩）欢迎第一志愿以及调剂（必须有数学成绩）的同学与我联系。本人介绍：张二晋，硕士生导师。2020年博士毕业于湖南大学，同年入职江苏大学能源研究院。目前主要从事铝离子电池，钾离子电池电极材料制备及储能机理方面研究。在研项目包括国家自然科学基金，江苏省自然科学基金。已在Energy Storage Materials，Advanced Science，Chemical Engineer</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:11:21</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849980.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2022年燕山大学仪器科学与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>一、团队概况：  课题组隶属于燕山大学仪器科学与技术学科，该学科是河北省强势学科、省级重点学科，学科拥有仪器学与技术一级学科博士点，“测试计量技术与仪器”省级重点实验室。本团队现有教师4人，其中，教授(博导)1人，副教授2人，讲师1人；在读研究生40人，其中，博士研究生5人，硕士研究生35人。课题组与美国韦恩州立大学工程技术系、中信集团先进技术研究院、金隅冀东水泥集团等国内外知名科研单位与企业建立了长期合作关系。瞄准国际前沿并结合工程需求，利用大数据分析、深度神经网络、先进传感技术、智能控制技术的融合交叉，致</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:10:35</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849970.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2022年内蒙古科技大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. 所属学校：内蒙古科技大学（注意：1，只招收工科类材料，化学，物理专业研究生，其他专业勿扰）2. 研究方向：①高储能密度新材料；②铁电-光电新材料；③电卡致冷新材料。实验室简介：实验室围绕国家重点基础研究发展计划和重大科学研究计划，结合自身研究特色，以电介质物理基础科学为背景，主要探索铁电、反铁电及弛豫铁电等电介质材料组分设计和微结构控制方法，考察材料在外场（温度、电场、应力及光照等）作用下所伴随的能量存储和转换行为及相关物理机制，解决铁电薄膜、厚膜与硅基半导体集成、多层厚膜陶瓷电容器构筑、微型器件</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:10:18</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849969.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2022年淮阴工学院材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>淮阴工学院 材料与化工专业   本人就职于江苏省农业科学院，研究员，从事经济作物虫害防控新技术研究，在淮阴工学院有硕导资质，可招收硕士。目前淮阴工学院的材料与化工方向还有硕士调剂名额，欢迎考生进行调剂。面试通过后，研究生的基础课程在淮阴工学院完成，后续的主要科研实验在位于南京的江苏省农业科学院开展。如有感兴趣的同学，请直接与我联系（xlb@jaas.ac.cn)。   初试成绩要达到a类工科专硕线，农学、园艺、植保、生物化学等相关专业优先考虑，其他相关专业可酌情考虑。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:09:04</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849958.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2022年长沙理工大学材料科学院料科学与工程（学硕）和材料与化工（专硕）招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>长沙理工大学材料科学与工程学院，材料科学与工程（学硕）和材料与化工（专硕）2022年有少数缺额，欢迎材料、化学、物理等相关专业考试联系调剂！联系方式，何老师，0731-85258490，电子邮箱：1693518290@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:07:19</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849949.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2022年五邑大学材料与化工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>要求考数学，第一志愿08开头。欢迎环境、化学、生物和水工程相关专业背景，考研成绩符合国家a类考生标准的考生报名。联系方式：周丽琳师姐 微信：15625126460关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:07:08</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849945.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2022年中国石油大学（华东）地质资源与地质工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>一、中国石油大学（华东）简介中国石油大学（华东）是教育部直属全国重点大学，是国家“211工程”重点建设和开展“985工程优势学科创新平台”建设并建有研究生院的高校之一。2017年学校进入国家“双一流”建设高校行列。中国石油大学（华东）是教育部和五大能源企业集团公司、教育部和山东省人民政府共建的高校，是石油石化高层次人才培养的重要基地，被誉为“石油科技、管理人才的摇篮”，现已成为一所以工为主、石油石化特色鲜明、多学科协调发展的大学。详情见http://upc.edu.cn/xygk/xxjj.htm。二、课题组简介应用岩石物理实验室（htt</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:06:16</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849939.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2022年东北农业大学应用化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>本人是东北农业大学应用化学系副教授，招收应用化学专业学术型硕士研究生和轻工与技术（生物与医药）专业硕士。本人长期从事双水相萃取法提取酶制剂、蛋白质以及食品中污染物残留检测的检测，对于双水相萃取及食品中蛋白质及其他活性成分分离有较丰富的研究经验和基础。现主持完成或在研国家基金青年项目1项，黑龙江省基金1项，国家重点研发计划子课题1项，哈尔滨市创新人才项目1项，发表SCI论文20余篇，其中ESI高被引论文5篇。近两年毕业硕士研究生人均发表sci论文2篇（均为中科院二区以上论文）。东北农业大学在美丽的冰城哈尔滨市，是双</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:05:48</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849934.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>（专硕）2022年河北农业大学理工学院生物与医药招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. 要求：由于2022国家线还没正式通知，具体细节于国家线发布后再通知，大家可以提前报名  2. 往年要求：一志愿报考专业/方向1.生物与医药。          2.化工或材料相关专业。          3.食品科学与工程类专业。          4. 环境类专业。数学二，数学方向不包含农科方向数学，总分和单科过国家线，学校面试。3. 联系电话：17631799720芦老师4. 导师主要研究方向（1）电化学方向：如电催化水分解等；（2）太阳能电池对电极研究；（3）探测器、传感器；（4）光电转换材料；  有诚意的调剂考生请联系电话17631799720（或加微信，同手机号）</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:05:22</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849931.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2022年淮阴工学院 化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>要求能够吃苦耐劳，勤奋好学关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系18137782070</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:02:06</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849924.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2022年石河子大学工业催化招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>考研科目：英语一、数学二只接收：化工学硕联系方式: 350374579@qq.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调剂信息，联系1813</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:02:50</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849919.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2022年福建医科大学病理学与病理生理学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>福建医科大学病理学与病理生理学（100104） 黄恩课题组招收1名基础医学（10开头）方向学术型研究生（包括调剂）由于有校内调剂，第一志愿报考福建医科大学优先，请积极联系。研究方向：神经病理生理学，神经退行性病变神经科学是现代医学与生物学研究中重要的综合性学科，国家“脑计划”重大战略规划以及我校的双一流建设明确了发展神经科学研究的重要性与必要性。福建医科大学神经科学研究院为以附属医院居有优势的神经系统疾病研究与病理资源，基础医学院侧重平台建设与基础研究助力发展我校的优势神经科学研究项目。基础医学院已引进多</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:01:46</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849909.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2022年广东工业大学光学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>调剂要求：（1）要求统考科目为“数学一”、“英语一”的学硕考生；（2）具有“光电信息科学与工程”、“物理学”相关专业学术背景；（3）对未知充满好奇，想自己做点什么东西。招收人数：一、课题组简介邸江磊教授介绍：广东工业大学百人计划特聘教授，博士生导师（https://yzw.gdut.edu.cn/info/1088/5254.htm），隶属于广东工业大学信息工程学院先进光子技术研究团队（https://iptl.gdut.edu.cn/index.htm）。主持国家重点研发计划课题，国家自然科学基金面上项目/NSAF联合基金项目，航空科学基金等项目多项，在国内外学术期刊发表SCI论</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:01:02</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849905.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2022年上海电机学院材料加工工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>上海电机学院郭彦兵老师课题组诚招研究生，招收研究生专业：（1）材料加工工程（2）焊接工程与技术（3）自动控制工程（4）电气控制工程（5）计算机科学与技术（6）机械控制工程（7）物理与化学招生类型：硕士招生，接受调剂招收学校：上海电机学院学制及招收方向：3年制硕士，材料加工工程学校地点：上海临港新片区提供的补助待遇：按学校规定发放导师（课题组）介绍：1）研究方向：（1）激光增材制造、电弧增材制造（2）高能束焊接（3）焊缝跟踪与图像处理（4）激光表面改性2）个人简介：2011年11月重庆大学大学焊接专业硕士研究生毕业，</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2022-02-22 14:00:28</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849892.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2022年山东科技大学测绘科学与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. 优先考虑具有专业背景的同学；2. 特别欢迎具有较强的英语阅读和写作能力的同学，发表过SCI论文者优先考虑;3. 特别欢迎本科期间有实验基础的同学；4. 喜欢科研工作，特别欢迎将来有读博、出国等从事科研工作的意向的同学优先考虑；5. 身体健康；6. 勤奋刻苦，工作积极主动；申请方式：申请者请将详细个人简历（包括联系方式、计算机能力、四六级成绩、本科排名、专业、发表论文情况和个人特长）及代表作（若有）的pdf版发送至邮箱449737729@qq.com 并添加学长qq：449737729导师简介：研究方向:定量遥感作为负责人获得国家级、省部级等课</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:59:30</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849882.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2022年功能聚合物电解质材料课题组高分子材料学、高分子化学与物理招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>功能聚合物电解质材料(高温燃料电池、全固态超级电容器)课题组招生方向：高分子材料学（工科）、高分子化学与物理（理学）招收2021具有化学、材料等专业背景，考生报考专业为化学或材料科学与工程专业的调剂研究生。（能够调剂的学科代码为0805、0703和0817），欢迎报考。课题组研究方向：主要是针对新能源器件（燃料电池超级电容器）的核心部件——电解质的研究1.聚合物功能膜材料的分子设计及其离子传输通道的研究2.全固态超级电容器的设计及其器件研究课题组简介：课题组目前在读12名硕士研究生。课题组规模虽小，但个个都是科研精英，</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:59:08</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849881.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2022年大连医科大学生物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>大连医科大学博士生导师袁予辉教授课题组目前拟招收细胞生物学专业的调剂研究生，期待本科为药学、农学、生化、分子、细胞、生理医学等相关专业优秀学子的加入。　　院系简介　　大连医科大学肿瘤干细胞研究院是学校以人才引进及合作共建等方式组建的高端学术团队。创新团队以肿瘤机制研究为基础、肿瘤预防为重点、肿瘤个体化治疗为中心、转化医学和创新药物为目标，把基础研究与临床治疗紧密结合。　　具体信息可登陆如下网址查看：http://home.dlmedu.edu.cn/ICSC/　　袁予辉教授在美国学习工作多年，目前主要研究方向：　　（1）肿瘤相</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:57:23</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849870.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2022年中国科学院大学物理、材料专业 招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>研究生调剂招生信息-国科大、近物所-物理、材料专业学校: 中国科学院近代物理研究所，中国科学院大学专业: 物理学、核物理与核技术、应用物理、材料物理、微电子学或凝聚态物理等相关专业。要求：学习积极主动，工作态度踏实认真，独立性强，碰到困难不退缩，调剂意愿诚恳，CET6级；可硕博连读者优先；硕士研究生第一年在国科大北京雁栖湖校区学习。年级:  2022招生人数:  2研究方向：微米纳米离子束技术、新材料和微电子器件辐照效应研究、微纳材料应用研究导师和研究方向介绍：http://people.ucas.ac.cn/~GuanghuaDu申请方式申请者请将详</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:56:31</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849862.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2022年中原工学院材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>（一）    导师情况艾文英，中原工学院，材料与化工学院，校聘副教授，硕士生导师工作及教育背景(1) 2008.9至2012.6, 河南大学, 化学, 学士，导师：史峰教授(2) 2012.9至2015.6, 天津大学, 药物化学, 硕士, 导师: 雷晓光教授(3) 2016.9至2019.6, 北京师范大学, 有机化学, 博士, 导师: 卢忠林教授(4) 2016.10至2019.5, 清华大学, 有机化学, 联合培养博士, 导师: 刘强教授(5) 2019.6至今, 任职于中原工学院,材料与化工学院（二）    研究方向(1) 生物基材料的设计、制备与应用(2) 金属-共价有机框架在催化化学中的应用（三）招生说明拟招收2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:55:31</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849859.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2022年 江西理工大学资源与环境工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>欢迎需要调剂的同学可以关注江西理工大学，江西理工资源与环境工程学院2022年硕士研究生调剂qq群，597150645。关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:55:14</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849855.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2022年中国石油勘探开发研究院摄影测量与遥感招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>中国石油勘探开发研究院接受2022年遥感调剂生一名要求:①英语一数学二或数学一②初试成绩300分以上③过英语4级④初试科目专业课或本科为地信或遥感专业如下为加分项:①过6级或者雅思托福②有校内科研经历过发表过文章（一作）③实现过遥感图像代码处理福利待遇①补助3700元每月，按工资发到个人账户②免学费住宿费，可在北京大学修遥感专业课③工作日 早中午工作餐，早上一元中午五元，自助符合要求的同学请邮件18513072800@163.com关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:54:37</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849850.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>（专硕）2022年青岛科技大学化学与分子工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>招生类别：a区硕士（专硕） （直接报考和调剂生都可以）招生单位：青岛科技大学化学与分子工程学院邢军老师小组学制：专硕3年专业：化学，材料等相关专业（考研必须考数学）方向：光电转换材料与器件，发光二极管（led）、纳米激光器，光催化、光电催化导师简介：邢军，男，教授，硕士生导师，14年博士毕业于华东理工大学，至19年，先后在新加坡南洋理工理工大学，加拿大多伦多大学从事博士后研究，同年加入青岛科技大学化学院。主要从事光电材料的开发与应用，在卤化钙钛矿发光材料与器件和无机半导体光催化领域开展了系统研究工作。发表</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:53:17</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849841.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2022年山东农业大学兽医学、园艺学、 植物保护招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>招聘要求：1. 优先考虑具有专业背景的同学；2. 特别欢迎具有较强的英语阅读和写作能力的同学，发表过SCI论文者优先考虑;3. 特别欢迎本科期间有实验基础的同学；4. 喜欢科研工作，特别欢迎将来有读博、出国等从事科研工作的意向的同学优先考虑；5. 身体健康；6. 勤奋刻苦，工作积极主动；申请方式：申请者请将详细个人简历（包括联系方式、计算机能力、四六级成绩、本科排名、专业、发表论文情况和个人特长）及代表作（若有）的pdf版发送至邮箱1409807370@qq.com 并添加学姐qq：1409807370导师介绍：刘思当，男，1961年10月生，教授，兽医病</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:51:55</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849811.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2022年渤海大学应用化学、化学工艺招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>渤海大学省重点实验室22年招生，本实验室面积1000平米，科研设备原值1200万，具有博士学位导师24人。承担国家自然科学基金11项、863计划1项、省部级科研项目34项，市厅级及横向项目15项，累计科研经费1600余万元；获辽宁省科技进步一等奖1项、二等奖1项、三等奖2 项，获辽宁省研究生教学成果二等奖1项，辽宁省青年教师讲课大赛二等奖1项、三等奖1项，获授权发明专利78项，专利单项转化额度超100万，横向经费进账额超千万。我们注重团队建设和人才培养，切实打造技术研究应用优势团队，团队的理念是“磨身磨心磨成长，同组同心同奋斗”，团</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:51:37</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849807.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2022年重庆理工大学材料科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>硕士研究生调剂接收专业：（1）（全日制）0805材料科学与工程（学术学位）（2）（全日制）0856材料与化工（材料工程）（专业学位）现有较多的调剂名额，请有意者尽快联系！联系人：杨老师办公电话：023-62563173、62563178邮箱：cl@cqut.edu.cn、409816513@qq.com附件1：重庆理工大学材料科学与工程学院简介：材料科学与工程学院是重庆理工大学重点发展的学院之一，也是学校首批申博单位。学院所属材料科学与工程一级学科是重庆市“十三五”一流学科。学科领域涵盖金属材料、高分子材料、无机非金属材料以及复合材料的制备、改性与加工技术</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:50:44</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849801.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2022年石家庄铁道大学安全科学与工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>专业需求:土木工程、安全科学与工程数二英二暂不考虑石家庄铁道大学安全应急管理学院徐飞导师团队招收土木工程、安全科学与工程硕士研究生（含调剂）初试须过国家线有机会进入复试，请明确意向后联系。过英语6级有土木工程背景优先考虑。姓名：  徐飞  性别：  男院系：  大型结构健康诊断与控制研究所  专业技术职务：  副教授  所属学科：  土木工程导师类别：  硕士生导师 电子邮箱：  xufei@stdu.edu.cn  最高学位：   博士最高学历：  博士研究生     毕业院校：  山东大学  毕业专业：  桥梁与隧道工程研究方向：  隧道与地下工程结</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:50:22</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849797.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2022年江苏科技大学材料学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>江苏科技大学材料学院高分子专业教授诚招硕士调剂生（已考数二）-高分子材料、化学、材料等方向专业:材料学、材料物理与化学（学术型硕士）；材料工程（专硕）材料学院拥有1个一级学科博士点，4个二级学科博士点，为江苏省重点学科。邹俊，男，江苏科技大学教授，材料科学与工程学院中青年学科带头人，国家“十二五”战略新兴产业新材料重点产品《指导目录》参与起草人，中国化学会会员。国际绿色经济协会专家理事、中国聚乳酸技术创新联盟理事、江苏省政府企业特聘专家、江苏省医用输液包装新材料工程技术研究中心技术负责人、跨国公司韩</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:49:35</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849793.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2022年青岛科技大学生物工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>青岛科技大学 海洋科学与生物工程学院 王硕教授带领的课题组紧急招调剂生多名， 目前课题组主要从事琥珀化石与基因组学研究，收集有国内外数量最多的琥珀化石，采用多学科研究手段解析重要动植物类群的起源和进化，成果发表于science等多个国际顶尖杂志上发表。我们非常欢迎有志于科学研究的同学提出申请，根据个人兴趣和学习基础，开展有意义、有价值的研究工作。依据学校调剂要求，报考专业代码必须08开头，调剂要求专业课必须考数学一或数学二，第一报考志愿为生物学有关专业（08专业开头；其中有植物学，昆虫分类等分类学基础的优先考</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:49:09</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849786.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2022年广西大学作物学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>一、团队介绍：  近5年，团队以第一作者或通讯作者在国际高水平期刊上发表40余篇sci论文，其中包括领域高水平期刊nature communications、plant biotechnology journal、frontiers in plant science等，实验室已具备非常完善的实验条件及设备，团队已有超20人。二、研究方向：1. 甘蔗分子育种2. 甘蔗养分利用3. 甘蔗、玉米与昆虫互作机制欢迎有生物信息学、计算机编程、生物学方向背景的学生！感兴趣和有诚意者请将简历发到邮箱xipingyang@gxu.edu.cn，多谢关注!关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:48:15</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849780.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>（学硕+专硕）2022年河北联合大学材料物理与化学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>材料科学与工程学院：材料科学与工程（学硕，高分子、材化、复合材料、应用化学等专业优先考虑，需要考数学）材料与化工（专硕，高分子、材化、复合材料、应用化学等专业优先考虑，需要考数学）考研成绩需过a区国家线！欢迎相关专业的有志青年报考或调剂到本课题组。联系方式: qq 2814426636关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:46:40</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849774.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2022年青岛大学凝聚态物理招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>考研调剂招生信息　　学校:青岛大学　　专业:理学-物理学-凝聚态物理　　年级:2022　　招生人数:4　　招生状态:正在招生中　　补充内容　　2022青岛大学物理科学学院柔性电介质研究团队招收物理、材料方向报考/调剂硕士研究生　　一、可接收的招生专业　　1，物理学（学术学位研究生）　　2，材料工程（专业学位研究生）　　二、可接收的专业　　材料工程、物理学、材料物理与化学、新能源科学与工程、应用物理、材料物理等　　三、研究方向简介　　传统电子器件的研究内容基于导电的导体/半导体材料，例如电力传输通常使用金属材料，而要</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:47:23</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849772.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2022年上海海事大学 海洋科学与工程学院船舶与海洋结构物设计制造招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>上海海事大学 海洋科学与工程学院 船舶与海洋结构物设计制造团队需要调剂学生15～20人。基本要求1：一志愿为船舶、机械、电器、土木、力学、计算机、通信、工设、水利、汽车、航空航天、能动、飞行器、地矿等08开头的工科专业；基本要求2：过a区国家线，一志愿为学术型硕士，考数学一英语一无需在此回复，符合要求的请直接联系刘老师，微信13127596019关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:45:21</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849755.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2022年齐鲁工业大学制浆造纸工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>招生简介： 齐鲁工业大学(山东省科学院)-生物基材料与绿色造纸国家重点实验室-刘温霞教授课题组招收调剂研究生。拟招收调剂研究生专业：制浆造纸工程、林产化工、化学工程、生物化工、有机分子功能材料等相关专业，专业也可适当扩大（要求有一定的化学基础）。 课题组招生人数10名（学硕4-7名，专硕4-7名）  一、调剂基本要求：　　1、初试成绩达到教育部统一规定的A类地区复试分数线（单科、总分）。　　2、要求的数学和英语种类：数学二（数学一也可）；英语一（学术性硕士），英语二（专业性硕士）　　3、未考统考科目的考生不能调入设</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:45:20</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849753.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2022年哈尔滨理工大学材料学、化学工程与技术招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>课题组的研究方向围绕但不限于黑龙江省CO2资源化利用与能源催化材料重点实验室、黑龙江省石墨-石墨烯应用技术协同创新中心的两大科研方向。具体包括光电催化（污染物处理、产氢、二氧化碳还原）、热催化降解VOCs、多孔陶瓷以及超高温陶瓷结构设计、超晶格/多孔材料的力学性能模拟以及先进二维材料等。欢迎有材料学、化学、力学、计算机模拟等方面背景的同学报考/调剂。调剂要求：1.分数要求：考生初试成绩（单科、总分）达到2022年国家研究生复试分数线A类地区要求。2.专业要求：本科是材料科学与工程、化学工程、金属材料、无机非金属材料</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:44:28</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849745.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2022年山东科技大学岩土、地下工程、土木工程、采矿等招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>招聘要求：优先考虑具有相关专业背景（岩土、地下工程、土木工程、采矿等）的同学申请方式：申请者请将详细个人简历（包括联系方式、计算机能力、四六级成绩、本科排名、专业、发表论文情况和个人特长）及代表作（若有）的pdf版发送至邮箱xihuancicuo@163.com导师所研究方向：（1）矿山压力与岩层控制（2）光纤传感智能监测技术（3）矿用光纤传感器件设计主持参与科研项目：主持承担国家自然科学基金项目1项、省部共建国家重点实验室开放研究基金1项、山东科技大学科研启动基金项目1项，作为研究骨干参与国家自然科学基金重大科研仪器研制</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2022-02-22 13:43:32</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22849733.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>